--- a/cache_data/out/rebuilt.xlsx
+++ b/cache_data/out/rebuilt.xlsx
@@ -386,7 +386,7 @@
         <v>0.9562700390815735</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8760199546813965</v>
+        <v>0.8763312101364136</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -397,7 +397,7 @@
         <v>0.9446945786476135</v>
       </c>
       <c r="C3" t="n">
-        <v>0.91346275806427</v>
+        <v>0.9113966226577759</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -408,7 +408,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9037662148475647</v>
+        <v>0.9021154642105103</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -419,7 +419,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8460071086883545</v>
+        <v>0.8480052947998047</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -430,7 +430,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8365309238433838</v>
+        <v>0.8386342525482178</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -441,7 +441,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7530289888381958</v>
+        <v>0.7548186182975769</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -452,7 +452,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7663404941558838</v>
+        <v>0.7684164643287659</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -463,7 +463,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7824727892875671</v>
+        <v>0.7849799990653992</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -474,7 +474,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7867558002471924</v>
+        <v>0.7898211479187012</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -485,7 +485,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7910445928573608</v>
+        <v>0.7937579751014709</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -496,7 +496,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8247478008270264</v>
+        <v>0.8271007537841797</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -507,7 +507,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7920502424240112</v>
+        <v>0.7948254346847534</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -518,7 +518,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7861740589141846</v>
+        <v>0.7889068722724915</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -529,7 +529,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7850408554077148</v>
+        <v>0.7878811359405518</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -540,7 +540,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7805521488189697</v>
+        <v>0.7832610011100769</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -551,7 +551,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7791144251823425</v>
+        <v>0.781624972820282</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -562,7 +562,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8109729290008545</v>
+        <v>0.8138871192932129</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -573,7 +573,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8073861598968506</v>
+        <v>0.8102007508277893</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -584,7 +584,7 @@
         <v>0.9228295683860779</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8276234269142151</v>
+        <v>0.8299972414970398</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -595,7 +595,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C21" t="n">
-        <v>0.850061297416687</v>
+        <v>0.8522507548332214</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -606,7 +606,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8574990034103394</v>
+        <v>0.859125554561615</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -617,7 +617,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8335715532302856</v>
+        <v>0.8358977437019348</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -628,7 +628,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8084224462509155</v>
+        <v>0.8111950755119324</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -639,7 +639,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8205772638320923</v>
+        <v>0.8234186768531799</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -650,7 +650,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8137822151184082</v>
+        <v>0.8168320059776306</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -661,7 +661,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7754976749420166</v>
+        <v>0.7782441973686218</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -672,7 +672,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8485970497131348</v>
+        <v>0.8500980734825134</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -683,7 +683,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8550695180892944</v>
+        <v>0.8565694689750671</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -694,7 +694,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8467525243759155</v>
+        <v>0.8486605286598206</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -705,7 +705,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8317908048629761</v>
+        <v>0.8340330719947815</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -716,7 +716,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7692239284515381</v>
+        <v>0.7717922329902649</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -727,7 +727,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7587872743606567</v>
+        <v>0.7607702612876892</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -738,7 +738,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C34" t="n">
-        <v>0.752537727355957</v>
+        <v>0.7544763088226318</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -749,7 +749,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7640295028686523</v>
+        <v>0.7663134932518005</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -760,7 +760,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7472437024116516</v>
+        <v>0.7488043904304504</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -771,7 +771,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7603226900100708</v>
+        <v>0.7621888518333435</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -782,7 +782,7 @@
         <v>0.7144694924354553</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7671722173690796</v>
+        <v>0.77004474401474</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -793,7 +793,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7445787191390991</v>
+        <v>0.7459432482719421</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -804,7 +804,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7587872743606567</v>
+        <v>0.7607702612876892</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -815,7 +815,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C41" t="n">
-        <v>0.763177752494812</v>
+        <v>0.765612781047821</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -826,7 +826,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7760345935821533</v>
+        <v>0.7785937190055847</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -837,7 +837,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7711436748504639</v>
+        <v>0.7738111615180969</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -848,7 +848,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8367172479629517</v>
+        <v>0.8389325737953186</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -859,7 +859,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C45" t="n">
-        <v>0.827207624912262</v>
+        <v>0.8297783732414246</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -870,7 +870,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8361483216285706</v>
+        <v>0.8384746909141541</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -881,7 +881,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8039015531539917</v>
+        <v>0.8068099021911621</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -892,7 +892,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7915995717048645</v>
+        <v>0.7942963242530823</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -903,7 +903,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8468970060348511</v>
+        <v>0.8489508628845215</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -914,7 +914,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8387241959571838</v>
+        <v>0.8406985402107239</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -925,7 +925,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8442322015762329</v>
+        <v>0.8460448384284973</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -936,7 +936,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8081775903701782</v>
+        <v>0.8108769655227661</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -947,7 +947,7 @@
         <v>0.9999999403953552</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7925642728805542</v>
+        <v>0.7954840660095215</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -958,7 +958,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9192199110984802</v>
+        <v>0.9185389280319214</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -969,7 +969,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C55" t="n">
-        <v>0.824196457862854</v>
+        <v>0.8267403244972229</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -980,7 +980,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7498967051506042</v>
+        <v>0.7516486048698425</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -991,7 +991,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7831049561500549</v>
+        <v>0.7859154939651489</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1002,7 +1002,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7614144086837769</v>
+        <v>0.7635499835014343</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1013,7 +1013,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7666326761245728</v>
+        <v>0.7690609097480774</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1024,7 +1024,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8041650056838989</v>
+        <v>0.8071320652961731</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1035,7 +1035,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7685419321060181</v>
+        <v>0.7710909843444824</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1046,7 +1046,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7605621218681335</v>
+        <v>0.762847363948822</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1057,7 +1057,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7723239660263062</v>
+        <v>0.7748561501502991</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1068,7 +1068,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7749021053314209</v>
+        <v>0.7775564789772034</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1079,7 +1079,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7556691765785217</v>
+        <v>0.7576305270195007</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1090,7 +1090,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7779872417449951</v>
+        <v>0.780983030796051</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1101,7 +1101,7 @@
         <v>0.9999999403953552</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7711436748504639</v>
+        <v>0.7738111615180969</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1112,7 +1112,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9253054857254028</v>
+        <v>0.9245840311050415</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1123,7 +1123,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7993100881576538</v>
+        <v>0.8022355437278748</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1134,7 +1134,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7866805791854858</v>
+        <v>0.7892593741416931</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1145,7 +1145,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8313663601875305</v>
+        <v>0.8338122963905334</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1156,7 +1156,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8091995120048523</v>
+        <v>0.8118696808815002</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1167,7 +1167,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8422024846076965</v>
+        <v>0.8442967534065247</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1178,7 +1178,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8345109820365906</v>
+        <v>0.8368586897850037</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1189,7 +1189,7 @@
         <v>0.9672026038169861</v>
       </c>
       <c r="C75" t="n">
-        <v>0.837464451789856</v>
+        <v>0.8395921587944031</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1200,7 +1200,7 @@
         <v>0.9228295683860779</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9109801054000854</v>
+        <v>0.9090019464492798</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1211,7 +1211,7 @@
         <v>0.9337620139122009</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8994162082672119</v>
+        <v>0.8979704976081848</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1222,7 +1222,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8966138362884521</v>
+        <v>0.8955163955688477</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1233,7 +1233,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7771552801132202</v>
+        <v>0.7798981666564941</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1244,7 +1244,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7711436748504639</v>
+        <v>0.7738111615180969</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1255,7 +1255,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7582972049713135</v>
+        <v>0.760425865650177</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1266,7 +1266,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7887133955955505</v>
+        <v>0.791531503200531</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1277,7 +1277,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7808507680892944</v>
+        <v>0.7836008667945862</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1288,7 +1288,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7692239284515381</v>
+        <v>0.7717922329902649</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1299,7 +1299,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7640295028686523</v>
+        <v>0.7663134932518005</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1310,7 +1310,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7556691765785217</v>
+        <v>0.7576305270195007</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1321,7 +1321,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7570698261260986</v>
+        <v>0.7593609690666199</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1332,7 +1332,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7548073530197144</v>
+        <v>0.7569249272346497</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1343,7 +1343,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7570698261260986</v>
+        <v>0.7593609690666199</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1354,7 +1354,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7609134912490845</v>
+        <v>0.7632049918174744</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1365,7 +1365,7 @@
         <v>0.9562700390815735</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7556691765785217</v>
+        <v>0.7576305270195007</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1376,7 +1376,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8952182531356812</v>
+        <v>0.8942170739173889</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1387,7 +1387,7 @@
         <v>0.9781350493431091</v>
       </c>
       <c r="C93" t="n">
-        <v>0.781965970993042</v>
+        <v>0.7848863005638123</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1398,7 +1398,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C94" t="n">
-        <v>0.892311692237854</v>
+        <v>0.8919061422348022</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1409,7 +1409,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8311722278594971</v>
+        <v>0.8335106372833252</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1420,7 +1420,7 @@
         <v>0.9446945786476135</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8359598517417908</v>
+        <v>0.8382720947265625</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1431,7 +1431,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C97" t="n">
-        <v>0.91255784034729</v>
+        <v>0.9101433157920837</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1442,7 +1442,7 @@
         <v>0.9781350493431091</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8766451478004456</v>
+        <v>0.8766322731971741</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1453,7 +1453,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8951775431632996</v>
+        <v>0.8946356773376465</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1464,7 +1464,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8547275066375732</v>
+        <v>0.8560996651649475</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1475,7 +1475,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C101" t="n">
-        <v>0.7912411689758301</v>
+        <v>0.7941408753395081</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1486,7 +1486,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C102" t="n">
-        <v>0.7816400527954102</v>
+        <v>0.7845457196235657</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1497,7 +1497,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8015676140785217</v>
+        <v>0.8042238354682922</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8030272126197815</v>
+        <v>0.8059757351875305</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8109729290008545</v>
+        <v>0.8138871192932129</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7912411689758301</v>
+        <v>0.7941408753395081</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C107" t="n">
-        <v>0.7657814621925354</v>
+        <v>0.7683617472648621</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C108" t="n">
-        <v>0.7805521488189697</v>
+        <v>0.7832610011100769</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7884166240692139</v>
+        <v>0.7911973595619202</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C110" t="n">
-        <v>0.7808507680892944</v>
+        <v>0.7836008667945862</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C111" t="n">
-        <v>0.7782970070838928</v>
+        <v>0.7809333205223083</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C112" t="n">
-        <v>0.779064416885376</v>
+        <v>0.781885027885437</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7909550666809082</v>
+        <v>0.7938091158866882</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C114" t="n">
-        <v>0.7828001976013184</v>
+        <v>0.7855769991874695</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>0.9337620139122009</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7664405107498169</v>
+        <v>0.7693374156951904</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8916032314300537</v>
+        <v>0.8909443020820618</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>0.9009646773338318</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8556379079818726</v>
+        <v>0.8569707274436951</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>0.9009646773338318</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8633180856704712</v>
+        <v>0.8643830418586731</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8500392436981201</v>
+        <v>0.8517792224884033</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>0.9118971228599548</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8662121891975403</v>
+        <v>0.8669790625572205</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>0.9228295683860779</v>
       </c>
       <c r="C121" t="n">
-        <v>0.870779275894165</v>
+        <v>0.8714058995246887</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8884678483009338</v>
+        <v>0.8877624869346619</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8751612901687622</v>
+        <v>0.8755257129669189</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8343303203582764</v>
+        <v>0.8365595936775208</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7802363038063049</v>
+        <v>0.7829203009605408</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>0.7028939127922058</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8059470653533936</v>
+        <v>0.8086754083633423</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7511641979217529</v>
+        <v>0.7522028684616089</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7463721036911011</v>
+        <v>0.7480939030647278</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7749021053314209</v>
+        <v>0.7775564789772034</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7990792989730835</v>
+        <v>0.8018715977668762</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8407288193702698</v>
+        <v>0.8429020047187805</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8407288193702698</v>
+        <v>0.8429020047187805</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8346761465072632</v>
+        <v>0.8371567130088806</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>0.6810289621353149</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8273656368255615</v>
+        <v>0.8298287987709045</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7088577151298523</v>
+        <v>0.7078143954277039</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>0.7028939127922058</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7521668076515198</v>
+        <v>0.7541112899780273</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7371797561645508</v>
+        <v>0.737844705581665</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8018442392349243</v>
+        <v>0.8052434325218201</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7663404941558838</v>
+        <v>0.7684164643287659</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7705650329589844</v>
+        <v>0.7728371620178223</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7674722075462341</v>
+        <v>0.7697594165802002</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7950206398963928</v>
+        <v>0.7981074452400208</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7342890501022339</v>
+        <v>0.7354865670204163</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C144" t="n">
-        <v>0.7674722075462341</v>
+        <v>0.7697594165802002</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C145" t="n">
-        <v>0.7671322822570801</v>
+        <v>0.7694078683853149</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C146" t="n">
-        <v>0.7610483169555664</v>
+        <v>0.7631925940513611</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C147" t="n">
-        <v>0.7498967051506042</v>
+        <v>0.7516486048698425</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C148" t="n">
-        <v>0.7671322822570801</v>
+        <v>0.7694078683853149</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C149" t="n">
-        <v>0.766289234161377</v>
+        <v>0.7687082886695862</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C150" t="n">
-        <v>0.7579343914985657</v>
+        <v>0.7600659728050232</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>0.7028939127922058</v>
       </c>
       <c r="C151" t="n">
-        <v>0.7495142817497253</v>
+        <v>0.7512810826301575</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>0.6919614672660828</v>
       </c>
       <c r="C152" t="n">
-        <v>0.7430005073547363</v>
+        <v>0.7439823746681213</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C153" t="n">
-        <v>0.7380340099334717</v>
+        <v>0.738559901714325</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C154" t="n">
-        <v>0.7437067627906799</v>
+        <v>0.745231032371521</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>0.7028939127922058</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7405506372451782</v>
+        <v>0.742013156414032</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C156" t="n">
-        <v>0.7300413846969604</v>
+        <v>0.7305383086204529</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>0.7144694924354553</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7502608895301819</v>
+        <v>0.7520152926445007</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C158" t="n">
-        <v>0.7468496561050415</v>
+        <v>0.7484342455863953</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C159" t="n">
-        <v>0.7450878024101257</v>
+        <v>0.7470109462738037</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C160" t="n">
-        <v>0.7511168718338013</v>
+        <v>0.7527222633361816</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C161" t="n">
-        <v>0.7459747195243835</v>
+        <v>0.7477228045463562</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C162" t="n">
-        <v>0.7414315938949585</v>
+        <v>0.7427265644073486</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C163" t="n">
-        <v>0.7555198669433594</v>
+        <v>0.7573304772377014</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C164" t="n">
-        <v>0.7522608637809753</v>
+        <v>0.7547801733016968</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C165" t="n">
-        <v>0.7533966302871704</v>
+        <v>0.7551826238632202</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C166" t="n">
-        <v>0.7570698261260986</v>
+        <v>0.7593609690666199</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C167" t="n">
-        <v>0.7628196477890015</v>
+        <v>0.7652565836906433</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C168" t="n">
-        <v>0.7702869176864624</v>
+        <v>0.7731135487556458</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C169" t="n">
-        <v>0.7652029395103455</v>
+        <v>0.7673667669296265</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C170" t="n">
-        <v>0.7517775893211365</v>
+        <v>0.7537453174591064</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C171" t="n">
-        <v>0.7628196477890015</v>
+        <v>0.7652565836906433</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C172" t="n">
-        <v>0.7574361562728882</v>
+        <v>0.7597220540046692</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C173" t="n">
-        <v>0.7760345935821533</v>
+        <v>0.7785937190055847</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C174" t="n">
-        <v>0.7688918113708496</v>
+        <v>0.7714420557022095</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>0.9672026038169861</v>
       </c>
       <c r="C175" t="n">
-        <v>0.79706871509552</v>
+        <v>0.799996554851532</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>0.9446945786476135</v>
       </c>
       <c r="C176" t="n">
-        <v>0.927557110786438</v>
+        <v>0.926430881023407</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9078613519668579</v>
+        <v>0.9065563082695007</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>0.9337620139122009</v>
       </c>
       <c r="C178" t="n">
-        <v>0.8422024846076965</v>
+        <v>0.8442967534065247</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C179" t="n">
-        <v>0.8994595408439636</v>
+        <v>0.8982320427894592</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C180" t="n">
-        <v>0.766289234161377</v>
+        <v>0.7687082886695862</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C181" t="n">
-        <v>0.7714823484420776</v>
+        <v>0.7741600275039673</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C182" t="n">
-        <v>0.7760345935821533</v>
+        <v>0.7785937190055847</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C183" t="n">
-        <v>0.7731541991233826</v>
+        <v>0.7755516171455383</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C184" t="n">
-        <v>0.7794013619422913</v>
+        <v>0.7822278738021851</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C185" t="n">
-        <v>0.7745779752731323</v>
+        <v>0.7772111296653748</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C186" t="n">
-        <v>0.7700628042221069</v>
+        <v>0.7724891304969788</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C187" t="n">
-        <v>0.8197445869445801</v>
+        <v>0.8224694728851318</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C188" t="n">
-        <v>0.7512928247451782</v>
+        <v>0.7534034252166748</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C189" t="n">
-        <v>0.7799283266067505</v>
+        <v>0.7826420664787292</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C190" t="n">
-        <v>0.7882663011550903</v>
+        <v>0.7915465235710144</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C191" t="n">
-        <v>0.8123254776000977</v>
+        <v>0.8152046799659729</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C192" t="n">
-        <v>0.8051581978797913</v>
+        <v>0.8079984784126282</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C193" t="n">
-        <v>0.8124744892120361</v>
+        <v>0.8150562047958374</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C194" t="n">
-        <v>0.8100838661193848</v>
+        <v>0.8134580254554749</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C195" t="n">
-        <v>0.8281975984573364</v>
+        <v>0.8307490944862366</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C196" t="n">
-        <v>0.8287259936332703</v>
+        <v>0.831710159778595</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C197" t="n">
-        <v>0.8286194801330566</v>
+        <v>0.8309685587882996</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C198" t="n">
-        <v>0.8200993537902832</v>
+        <v>0.8231003284454346</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C199" t="n">
-        <v>0.8077352046966553</v>
+        <v>0.8107084631919861</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C200" t="n">
-        <v>0.7556691765785217</v>
+        <v>0.7576305270195007</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C201" t="n">
-        <v>0.7498967051506042</v>
+        <v>0.7516486048698425</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>0.7144694924354553</v>
       </c>
       <c r="C202" t="n">
-        <v>0.7414315938949585</v>
+        <v>0.7427265644073486</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C203" t="n">
-        <v>0.7561482191085815</v>
+        <v>0.7579742074012756</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C204" t="n">
-        <v>0.7640295028686523</v>
+        <v>0.7663134932518005</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C205" t="n">
-        <v>0.7609134912490845</v>
+        <v>0.7632049918174744</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C206" t="n">
-        <v>0.7751187086105347</v>
+        <v>0.7781639099121094</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C207" t="n">
-        <v>0.7640295028686523</v>
+        <v>0.7663134932518005</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C208" t="n">
-        <v>0.7614144086837769</v>
+        <v>0.7635499835014343</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C209" t="n">
-        <v>0.7723239660263062</v>
+        <v>0.7748561501502991</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C210" t="n">
-        <v>0.7714823484420776</v>
+        <v>0.7741600275039673</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C211" t="n">
-        <v>0.7574361562728882</v>
+        <v>0.7597220540046692</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C212" t="n">
-        <v>0.7556691765785217</v>
+        <v>0.7576305270195007</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C213" t="n">
-        <v>0.8106517791748047</v>
+        <v>0.813384473323822</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C214" t="n">
-        <v>0.8177857398986816</v>
+        <v>0.8205119967460632</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C215" t="n">
-        <v>0.8289656639099121</v>
+        <v>0.8314138054847717</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C216" t="n">
-        <v>0.8595672845840454</v>
+        <v>0.8608207106590271</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2751,7 +2751,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C217" t="n">
-        <v>0.8498268127441406</v>
+        <v>0.8516236543655396</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2762,7 +2762,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C218" t="n">
-        <v>0.8699260950088501</v>
+        <v>0.8704861998558044</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2773,7 +2773,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C219" t="n">
-        <v>0.8498268127441406</v>
+        <v>0.8516236543655396</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2784,7 +2784,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C220" t="n">
-        <v>0.8276234269142151</v>
+        <v>0.8299972414970398</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C221" t="n">
-        <v>0.8133389949798584</v>
+        <v>0.8161918520927429</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2806,7 +2806,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C222" t="n">
-        <v>0.7708902359008789</v>
+        <v>0.7731853127479553</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C223" t="n">
-        <v>0.7937572002410889</v>
+        <v>0.7967354655265808</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2828,7 +2828,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C224" t="n">
-        <v>0.775208592414856</v>
+        <v>0.7779008150100708</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2839,7 +2839,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C225" t="n">
-        <v>0.7723239660263062</v>
+        <v>0.7748561501502991</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2850,7 +2850,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C226" t="n">
-        <v>0.7819451093673706</v>
+        <v>0.7846285104751587</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2861,7 +2861,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C227" t="n">
-        <v>0.786984920501709</v>
+        <v>0.7895947098731995</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2872,7 +2872,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C228" t="n">
-        <v>0.7920502424240112</v>
+        <v>0.7948254346847534</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C229" t="n">
-        <v>0.7852766513824463</v>
+        <v>0.787963330745697</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C230" t="n">
-        <v>0.7875418066978455</v>
+        <v>0.7902622818946838</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C231" t="n">
-        <v>0.7640295028686523</v>
+        <v>0.7663134932518005</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C232" t="n">
-        <v>0.7629265785217285</v>
+        <v>0.7649618983268738</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C233" t="n">
-        <v>0.775208592414856</v>
+        <v>0.7779008150100708</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>0.2636656165122986</v>
       </c>
       <c r="C234" t="n">
-        <v>0.8016752004623413</v>
+        <v>0.804594099521637</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>0.01093247532844543</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3709511756896973</v>
+        <v>0.2747235298156738</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>0.01093247532844543</v>
       </c>
       <c r="C236" t="n">
-        <v>0.2069846093654633</v>
+        <v>0.08063633739948273</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>0.2069846093654633</v>
+        <v>0.08063633739948273</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>0.01093247532844543</v>
       </c>
       <c r="C238" t="n">
-        <v>0.2051533162593842</v>
+        <v>0.07893946766853333</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>0.2069846093654633</v>
+        <v>0.08063633739948273</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3004,7 +3004,7 @@
         <v>0.01093247532844543</v>
       </c>
       <c r="C240" t="n">
-        <v>0.2051533162593842</v>
+        <v>0.07893946766853333</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>0.2069846093654633</v>
+        <v>0.08063633739948273</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3026,7 +3026,7 @@
         <v>0.01093247532844543</v>
       </c>
       <c r="C242" t="n">
-        <v>0.2051533162593842</v>
+        <v>0.07893946766853333</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>0.2069846093654633</v>
+        <v>0.08063633739948273</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3048,7 +3048,7 @@
         <v>0.01093247532844543</v>
       </c>
       <c r="C244" t="n">
-        <v>0.2051533162593842</v>
+        <v>0.07893946766853333</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>0.2069846093654633</v>
+        <v>0.08063633739948273</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>0.2051533162593842</v>
+        <v>0.07893946766853333</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>0.204043447971344</v>
+        <v>0.07745008170604706</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3092,7 +3092,7 @@
         <v>0.06559485197067261</v>
       </c>
       <c r="C248" t="n">
-        <v>0.2051533162593842</v>
+        <v>0.07893946766853333</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3103,7 +3103,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C249" t="n">
-        <v>0.2365994304418564</v>
+        <v>0.1101561188697815</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3114,7 +3114,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C250" t="n">
-        <v>0.791510283946991</v>
+        <v>0.7944716215133667</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C251" t="n">
-        <v>0.7556691765785217</v>
+        <v>0.7576305270195007</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C252" t="n">
-        <v>0.7674722075462341</v>
+        <v>0.7697594165802002</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3147,7 +3147,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C253" t="n">
-        <v>0.7723239660263062</v>
+        <v>0.7748561501502991</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3158,7 +3158,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C254" t="n">
-        <v>0.7760345935821533</v>
+        <v>0.7785937190055847</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3169,7 +3169,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C255" t="n">
-        <v>0.7887133955955505</v>
+        <v>0.791531503200531</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3180,7 +3180,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C256" t="n">
-        <v>0.7688918113708496</v>
+        <v>0.7714420557022095</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3191,7 +3191,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C257" t="n">
-        <v>0.7594882249832153</v>
+        <v>0.7614871263504028</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3202,7 +3202,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C258" t="n">
-        <v>0.7760345935821533</v>
+        <v>0.7785937190055847</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3213,7 +3213,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C259" t="n">
-        <v>0.772641658782959</v>
+        <v>0.7752028703689575</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C260" t="n">
-        <v>0.8062047958374023</v>
+        <v>0.8087119460105896</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C261" t="n">
-        <v>0.7782970070838928</v>
+        <v>0.7809333205223083</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C262" t="n">
-        <v>0.79706871509552</v>
+        <v>0.799996554851532</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3257,7 +3257,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C263" t="n">
-        <v>0.8357696533203125</v>
+        <v>0.8379729390144348</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C264" t="n">
-        <v>0.8446938991546631</v>
+        <v>0.8469210267066956</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3279,7 +3279,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C265" t="n">
-        <v>0.8617435693740845</v>
+        <v>0.8627893924713135</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3290,7 +3290,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C266" t="n">
-        <v>0.85943204164505</v>
+        <v>0.8605369329452515</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3301,7 +3301,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C267" t="n">
-        <v>0.8588416576385498</v>
+        <v>0.8601720929145813</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3312,7 +3312,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C268" t="n">
-        <v>0.8550695180892944</v>
+        <v>0.8565694689750671</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3323,7 +3323,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C269" t="n">
-        <v>0.8335715532302856</v>
+        <v>0.8358977437019348</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C270" t="n">
-        <v>0.7948201894760132</v>
+        <v>0.7977460622787476</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3345,7 +3345,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C271" t="n">
-        <v>0.7598051428794861</v>
+        <v>0.7621294856071472</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C272" t="n">
-        <v>0.7856461405754089</v>
+        <v>0.7885545492172241</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3367,7 +3367,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C273" t="n">
-        <v>0.827989935874939</v>
+        <v>0.8304446339607239</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3378,7 +3378,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C274" t="n">
-        <v>0.7700628042221069</v>
+        <v>0.7724891304969788</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3389,7 +3389,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C275" t="n">
-        <v>0.7853521108627319</v>
+        <v>0.7882183194160461</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3400,7 +3400,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C276" t="n">
-        <v>0.7700628042221069</v>
+        <v>0.7724891304969788</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3411,7 +3411,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C277" t="n">
-        <v>0.7648696899414062</v>
+        <v>0.7670137286186218</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C278" t="n">
-        <v>0.7530289888381958</v>
+        <v>0.7548186182975769</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3433,7 +3433,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C279" t="n">
-        <v>0.7495142817497253</v>
+        <v>0.7512810826301575</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3444,7 +3444,7 @@
         <v>0.7144694924354553</v>
       </c>
       <c r="C280" t="n">
-        <v>0.752537727355957</v>
+        <v>0.7544763088226318</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C281" t="n">
-        <v>0.7423006296157837</v>
+        <v>0.7434394955635071</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C282" t="n">
-        <v>0.7640295028686523</v>
+        <v>0.7663134932518005</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3477,7 +3477,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C283" t="n">
-        <v>0.7582972049713135</v>
+        <v>0.760425865650177</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3488,7 +3488,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C284" t="n">
-        <v>0.7605621218681335</v>
+        <v>0.762847363948822</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3499,7 +3499,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C285" t="n">
-        <v>0.850375771522522</v>
+        <v>0.852037250995636</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3510,7 +3510,7 @@
         <v>0.9009646773338318</v>
       </c>
       <c r="C286" t="n">
-        <v>0.8625842332839966</v>
+        <v>0.8637179732322693</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3521,7 +3521,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C287" t="n">
-        <v>0.8714951276779175</v>
+        <v>0.8720490336418152</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3532,7 +3532,7 @@
         <v>0.9337620139122009</v>
       </c>
       <c r="C288" t="n">
-        <v>0.8827168941497803</v>
+        <v>0.8824097514152527</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3543,7 +3543,7 @@
         <v>0.9118971228599548</v>
       </c>
       <c r="C289" t="n">
-        <v>0.8841108679771423</v>
+        <v>0.8841871619224548</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3554,7 +3554,7 @@
         <v>0.9009646773338318</v>
       </c>
       <c r="C290" t="n">
-        <v>0.8906592726707458</v>
+        <v>0.8902468681335449</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3565,7 +3565,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C291" t="n">
-        <v>0.8744660019874573</v>
+        <v>0.8748854994773865</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3576,7 +3576,7 @@
         <v>0.9118971228599548</v>
       </c>
       <c r="C292" t="n">
-        <v>0.8436545133590698</v>
+        <v>0.8456814289093018</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3587,7 +3587,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C293" t="n">
-        <v>0.8647451400756836</v>
+        <v>0.8656850457191467</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3598,7 +3598,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C294" t="n">
-        <v>0.8417539596557617</v>
+        <v>0.8437736630439758</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3609,7 +3609,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C295" t="n">
-        <v>0.7591468095779419</v>
+        <v>0.7611291408538818</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3620,7 +3620,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C296" t="n">
-        <v>0.7656983137130737</v>
+        <v>0.7677134871482849</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3631,7 +3631,7 @@
         <v>0.7144694924354553</v>
       </c>
       <c r="C297" t="n">
-        <v>0.7617624998092651</v>
+        <v>0.7639064192771912</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3642,7 +3642,7 @@
         <v>0.7144694924354553</v>
       </c>
       <c r="C298" t="n">
-        <v>0.7538795471191406</v>
+        <v>0.755525529384613</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3653,7 +3653,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C299" t="n">
-        <v>0.7400153279304504</v>
+        <v>0.7409229874610901</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3664,7 +3664,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C300" t="n">
-        <v>0.7556691765785217</v>
+        <v>0.7576305270195007</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3675,7 +3675,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C301" t="n">
-        <v>0.8444012403488159</v>
+        <v>0.8463378548622131</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3686,7 +3686,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C302" t="n">
-        <v>0.8150891065597534</v>
+        <v>0.8177301287651062</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3697,7 +3697,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C303" t="n">
-        <v>0.7917676568031311</v>
+        <v>0.7944945693016052</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3708,7 +3708,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C304" t="n">
-        <v>0.7848165035247803</v>
+        <v>0.7878664135932922</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3719,7 +3719,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C305" t="n">
-        <v>0.7697341442108154</v>
+        <v>0.7721399068832397</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3730,7 +3730,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C306" t="n">
-        <v>0.7700628042221069</v>
+        <v>0.7724891304969788</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3741,7 +3741,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C307" t="n">
-        <v>0.7511168718338013</v>
+        <v>0.7527222633361816</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3752,7 +3752,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C308" t="n">
-        <v>0.7805521488189697</v>
+        <v>0.7832610011100769</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3763,7 +3763,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C309" t="n">
-        <v>0.8313663601875305</v>
+        <v>0.8338122963905334</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3774,7 +3774,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C310" t="n">
-        <v>0.826593279838562</v>
+        <v>0.8290224671363831</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3785,7 +3785,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C311" t="n">
-        <v>0.8060540556907654</v>
+        <v>0.8088646531105042</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3796,7 +3796,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C312" t="n">
-        <v>0.8249529004096985</v>
+        <v>0.8274063467979431</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3807,7 +3807,7 @@
         <v>0.9228295683860779</v>
       </c>
       <c r="C313" t="n">
-        <v>0.85943204164505</v>
+        <v>0.8605369329452515</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3818,7 +3818,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C314" t="n">
-        <v>0.8658716678619385</v>
+        <v>0.8677046895027161</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3829,7 +3829,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C315" t="n">
-        <v>0.8105375170707703</v>
+        <v>0.8133901357650757</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3840,7 +3840,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C316" t="n">
-        <v>0.8261969685554504</v>
+        <v>0.8285541534423828</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3851,7 +3851,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C317" t="n">
-        <v>0.793481707572937</v>
+        <v>0.7964058518409729</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3862,7 +3862,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C318" t="n">
-        <v>0.7937572002410889</v>
+        <v>0.7967354655265808</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3873,7 +3873,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C319" t="n">
-        <v>0.7688918113708496</v>
+        <v>0.7714420557022095</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3884,7 +3884,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C320" t="n">
-        <v>0.7615730762481689</v>
+        <v>0.7641962170600891</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3895,7 +3895,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C321" t="n">
-        <v>0.7700628042221069</v>
+        <v>0.7724891304969788</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3906,7 +3906,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C322" t="n">
-        <v>0.7666326761245728</v>
+        <v>0.7690609097480774</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3917,7 +3917,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C323" t="n">
-        <v>0.7605621218681335</v>
+        <v>0.762847363948822</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3928,7 +3928,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C324" t="n">
-        <v>0.7605621218681335</v>
+        <v>0.762847363948822</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3939,7 +3939,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C325" t="n">
-        <v>0.7666326761245728</v>
+        <v>0.7690609097480774</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3950,7 +3950,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C326" t="n">
-        <v>0.7757315635681152</v>
+        <v>0.7782503962516785</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3961,7 +3961,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C327" t="n">
-        <v>0.772641658782959</v>
+        <v>0.7752028703689575</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3972,7 +3972,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C328" t="n">
-        <v>0.7617624998092651</v>
+        <v>0.7639064192771912</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3983,7 +3983,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C329" t="n">
-        <v>0.766289234161377</v>
+        <v>0.7687082886695862</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -3994,7 +3994,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C330" t="n">
-        <v>0.7768247723579407</v>
+        <v>0.7795540690422058</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4005,7 +4005,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C331" t="n">
-        <v>0.7705286741256714</v>
+        <v>0.7725458145141602</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4016,7 +4016,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C332" t="n">
-        <v>0.7700628042221069</v>
+        <v>0.7724891304969788</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4027,7 +4027,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C333" t="n">
-        <v>0.8091995120048523</v>
+        <v>0.8118696808815002</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4038,7 +4038,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C334" t="n">
-        <v>0.8343116044998169</v>
+        <v>0.8361789584159851</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4049,7 +4049,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C335" t="n">
-        <v>0.8222038745880127</v>
+        <v>0.8247887492179871</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4060,7 +4060,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C336" t="n">
-        <v>0.8544560074806213</v>
+        <v>0.8555654287338257</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4071,7 +4071,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C337" t="n">
-        <v>0.8283896446228027</v>
+        <v>0.8310523629188538</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4082,7 +4082,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C338" t="n">
-        <v>0.8328024744987488</v>
+        <v>0.835235059261322</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4093,7 +4093,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C339" t="n">
-        <v>0.8436545133590698</v>
+        <v>0.8456814289093018</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4104,7 +4104,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C340" t="n">
-        <v>0.7978013753890991</v>
+        <v>0.8005428910255432</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4115,7 +4115,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C341" t="n">
-        <v>0.8334639072418213</v>
+        <v>0.8356567025184631</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4126,7 +4126,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C342" t="n">
-        <v>0.8383370637893677</v>
+        <v>0.8406332731246948</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4137,7 +4137,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C343" t="n">
-        <v>0.8153356313705444</v>
+        <v>0.8180443644523621</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4148,7 +4148,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C344" t="n">
-        <v>0.8449019193649292</v>
+        <v>0.8467621207237244</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4159,7 +4159,7 @@
         <v>0.9009646773338318</v>
       </c>
       <c r="C345" t="n">
-        <v>0.7598117589950562</v>
+        <v>0.7618440389633179</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4170,7 +4170,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C346" t="n">
-        <v>0.8702917695045471</v>
+        <v>0.8720062375068665</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4181,7 +4181,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C347" t="n">
-        <v>0.8330399990081787</v>
+        <v>0.8354353308677673</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4192,7 +4192,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C348" t="n">
-        <v>0.7511168718338013</v>
+        <v>0.7527222633361816</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4203,7 +4203,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C349" t="n">
-        <v>0.7757315635681152</v>
+        <v>0.7782503962516785</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4214,7 +4214,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C350" t="n">
-        <v>0.7666326761245728</v>
+        <v>0.7690609097480774</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4225,7 +4225,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C351" t="n">
-        <v>0.7697341442108154</v>
+        <v>0.7721399068832397</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4236,7 +4236,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C352" t="n">
-        <v>0.7856461405754089</v>
+        <v>0.7885545492172241</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4247,7 +4247,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C353" t="n">
-        <v>0.768098771572113</v>
+        <v>0.7704595327377319</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4258,7 +4258,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C354" t="n">
-        <v>0.7831049561500549</v>
+        <v>0.7859154939651489</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4269,7 +4269,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C355" t="n">
-        <v>0.7705650329589844</v>
+        <v>0.7728371620178223</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4280,7 +4280,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C356" t="n">
-        <v>0.8066433668136597</v>
+        <v>0.8096557259559631</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4291,7 +4291,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C357" t="n">
-        <v>0.8444012403488159</v>
+        <v>0.8463378548622131</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4302,7 +4302,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C358" t="n">
-        <v>0.8387241959571838</v>
+        <v>0.8406985402107239</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4313,7 +4313,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C359" t="n">
-        <v>0.8502010107040405</v>
+        <v>0.8517462611198425</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4324,7 +4324,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C360" t="n">
-        <v>0.8552888631820679</v>
+        <v>0.8563935160636902</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4335,7 +4335,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C361" t="n">
-        <v>0.8700323700904846</v>
+        <v>0.8707630038261414</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4346,7 +4346,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C362" t="n">
-        <v>0.8563787341117859</v>
+        <v>0.8576222062110901</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4357,7 +4357,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C363" t="n">
-        <v>0.837464451789856</v>
+        <v>0.8395921587944031</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4368,7 +4368,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C364" t="n">
-        <v>0.8289656639099121</v>
+        <v>0.8314138054847717</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4379,7 +4379,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C365" t="n">
-        <v>0.8528776168823242</v>
+        <v>0.8545711040496826</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4390,7 +4390,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C366" t="n">
-        <v>0.8708149790763855</v>
+        <v>0.8716800808906555</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4401,7 +4401,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C367" t="n">
-        <v>0.7640295028686523</v>
+        <v>0.7663134932518005</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4412,7 +4412,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C368" t="n">
-        <v>0.7875418066978455</v>
+        <v>0.7902622818946838</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4423,7 +4423,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C369" t="n">
-        <v>0.7924939393997192</v>
+        <v>0.7955225706100464</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4434,7 +4434,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C370" t="n">
-        <v>0.8032464981079102</v>
+        <v>0.8062955737113953</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4445,7 +4445,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C371" t="n">
-        <v>0.7779874801635742</v>
+        <v>0.7805911898612976</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4456,7 +4456,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C372" t="n">
-        <v>0.7774683237075806</v>
+        <v>0.7802411913871765</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4467,7 +4467,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C373" t="n">
-        <v>0.7711436748504639</v>
+        <v>0.7738111615180969</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4478,7 +4478,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C374" t="n">
-        <v>0.7700628042221069</v>
+        <v>0.7724891304969788</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4489,7 +4489,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C375" t="n">
-        <v>0.7700628042221069</v>
+        <v>0.7724891304969788</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4500,7 +4500,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C376" t="n">
-        <v>0.7723239660263062</v>
+        <v>0.7748561501502991</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4511,7 +4511,7 @@
         <v>0.7144694924354553</v>
       </c>
       <c r="C377" t="n">
-        <v>0.752537727355957</v>
+        <v>0.7544763088226318</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4522,7 +4522,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C378" t="n">
-        <v>0.7468496561050415</v>
+        <v>0.7484342455863953</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4533,7 +4533,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C379" t="n">
-        <v>0.777660608291626</v>
+        <v>0.7802481055259705</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4544,7 +4544,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C380" t="n">
-        <v>0.7828001976013184</v>
+        <v>0.7855769991874695</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4555,7 +4555,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C381" t="n">
-        <v>0.8051581978797913</v>
+        <v>0.8079984784126282</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4566,7 +4566,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C382" t="n">
-        <v>0.8422024846076965</v>
+        <v>0.8442967534065247</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4577,7 +4577,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C383" t="n">
-        <v>0.8534634113311768</v>
+        <v>0.8549804091453552</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4588,7 +4588,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C384" t="n">
-        <v>0.82578444480896</v>
+        <v>0.8283360004425049</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4599,7 +4599,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C385" t="n">
-        <v>0.8458437919616699</v>
+        <v>0.8477131724357605</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4610,7 +4610,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C386" t="n">
-        <v>0.8125067949295044</v>
+        <v>0.8152309060096741</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4621,7 +4621,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C387" t="n">
-        <v>0.8016752004623413</v>
+        <v>0.804594099521637</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4632,7 +4632,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C388" t="n">
-        <v>0.8343303203582764</v>
+        <v>0.8365595936775208</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4643,7 +4643,7 @@
         <v>0.9009646773338318</v>
       </c>
       <c r="C389" t="n">
-        <v>0.7875918745994568</v>
+        <v>0.7905095219612122</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4654,7 +4654,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C390" t="n">
-        <v>0.8736550211906433</v>
+        <v>0.8739685416221619</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4665,7 +4665,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C391" t="n">
-        <v>0.7737334966659546</v>
+        <v>0.7765156030654907</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4676,7 +4676,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C392" t="n">
-        <v>0.7609134912490845</v>
+        <v>0.7632049918174744</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4687,7 +4687,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C393" t="n">
-        <v>0.7680377960205078</v>
+        <v>0.7707436680793762</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4698,7 +4698,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C394" t="n">
-        <v>0.772822380065918</v>
+        <v>0.7752047181129456</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4709,7 +4709,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C395" t="n">
-        <v>0.7657814621925354</v>
+        <v>0.7683617472648621</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4720,7 +4720,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C396" t="n">
-        <v>0.7472437024116516</v>
+        <v>0.7488043904304504</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4731,7 +4731,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C397" t="n">
-        <v>0.7723239660263062</v>
+        <v>0.7748561501502991</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4742,7 +4742,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C398" t="n">
-        <v>0.7768492698669434</v>
+        <v>0.7792859673500061</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4753,7 +4753,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C399" t="n">
-        <v>0.7723239660263062</v>
+        <v>0.7748561501502991</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4764,7 +4764,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C400" t="n">
-        <v>0.7749021053314209</v>
+        <v>0.7775564789772034</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4775,7 +4775,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C401" t="n">
-        <v>0.7723239660263062</v>
+        <v>0.7748561501502991</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4786,7 +4786,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C402" t="n">
-        <v>0.8307818174362183</v>
+        <v>0.8334503769874573</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4797,7 +4797,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C403" t="n">
-        <v>0.779720664024353</v>
+        <v>0.7825695872306824</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4808,7 +4808,7 @@
         <v>0.9009646773338318</v>
       </c>
       <c r="C404" t="n">
-        <v>0.7605621218681335</v>
+        <v>0.762847363948822</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4819,7 +4819,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C405" t="n">
-        <v>0.8789066672325134</v>
+        <v>0.8788065910339355</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4830,7 +4830,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C406" t="n">
-        <v>0.792481541633606</v>
+        <v>0.7957555651664734</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4841,7 +4841,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C407" t="n">
-        <v>0.8287237286567688</v>
+        <v>0.8314771056175232</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4852,7 +4852,7 @@
         <v>0.9118971228599548</v>
       </c>
       <c r="C408" t="n">
-        <v>0.8848659992218018</v>
+        <v>0.8842893838882446</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4863,7 +4863,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C409" t="n">
-        <v>0.8811577558517456</v>
+        <v>0.8809698224067688</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4874,7 +4874,7 @@
         <v>0.9562700390815735</v>
       </c>
       <c r="C410" t="n">
-        <v>0.8427207469940186</v>
+        <v>0.8447293639183044</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4885,7 +4885,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C411" t="n">
-        <v>0.8965845108032227</v>
+        <v>0.8951454162597656</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4896,7 +4896,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C412" t="n">
-        <v>0.8106517791748047</v>
+        <v>0.813384473323822</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4907,7 +4907,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C413" t="n">
-        <v>0.85943204164505</v>
+        <v>0.8605369329452515</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4918,7 +4918,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C414" t="n">
-        <v>0.7985004186630249</v>
+        <v>0.8015549778938293</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4929,7 +4929,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C415" t="n">
-        <v>0.7827471494674683</v>
+        <v>0.7853167653083801</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4940,7 +4940,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C416" t="n">
-        <v>0.8242181539535522</v>
+        <v>0.8274710774421692</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4951,7 +4951,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C417" t="n">
-        <v>0.7879346609115601</v>
+        <v>0.7912097573280334</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4962,7 +4962,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C418" t="n">
-        <v>0.7760345935821533</v>
+        <v>0.7785937190055847</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4973,7 +4973,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C419" t="n">
-        <v>0.8084224462509155</v>
+        <v>0.8111950755119324</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -4984,7 +4984,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C420" t="n">
-        <v>0.8159024715423584</v>
+        <v>0.818815290927887</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -4995,7 +4995,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C421" t="n">
-        <v>0.8030272126197815</v>
+        <v>0.8059757351875305</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5006,7 +5006,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C422" t="n">
-        <v>0.7912411689758301</v>
+        <v>0.7941408753395081</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5017,7 +5017,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C423" t="n">
-        <v>0.8041650056838989</v>
+        <v>0.8071320652961731</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5028,7 +5028,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C424" t="n">
-        <v>0.7992991209030151</v>
+        <v>0.802193820476532</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5039,7 +5039,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C425" t="n">
-        <v>0.7994595766067505</v>
+        <v>0.802579939365387</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5050,7 +5050,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C426" t="n">
-        <v>0.8191251754760742</v>
+        <v>0.8219459652900696</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5061,7 +5061,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C427" t="n">
-        <v>0.8019604682922363</v>
+        <v>0.8050679564476013</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5072,7 +5072,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C428" t="n">
-        <v>0.7899187207221985</v>
+        <v>0.7936970591545105</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5083,7 +5083,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C429" t="n">
-        <v>0.8356935977935791</v>
+        <v>0.8384067416191101</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5094,7 +5094,7 @@
         <v>0.9009646773338318</v>
       </c>
       <c r="C430" t="n">
-        <v>0.8198807239532471</v>
+        <v>0.8226391673088074</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5105,7 +5105,7 @@
         <v>0.9446945786476135</v>
       </c>
       <c r="C431" t="n">
-        <v>0.8766266107559204</v>
+        <v>0.8767948746681213</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5116,7 +5116,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C432" t="n">
-        <v>0.8963689804077148</v>
+        <v>0.8947560787200928</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5127,7 +5127,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C433" t="n">
-        <v>0.8605024814605713</v>
+        <v>0.8620309829711914</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5138,7 +5138,7 @@
         <v>0.9337620139122009</v>
       </c>
       <c r="C434" t="n">
-        <v>0.8614225387573242</v>
+        <v>0.8618451952934265</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5149,7 +5149,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C435" t="n">
-        <v>0.8819475173950195</v>
+        <v>0.8823069930076599</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5160,7 +5160,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C436" t="n">
-        <v>0.8543446063995361</v>
+        <v>0.8559191823005676</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5171,7 +5171,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C437" t="n">
-        <v>0.864874541759491</v>
+        <v>0.8659558892250061</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5182,7 +5182,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C438" t="n">
-        <v>0.8127329349517822</v>
+        <v>0.8163830637931824</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5193,7 +5193,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C439" t="n">
-        <v>0.7530289888381958</v>
+        <v>0.7548186182975769</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5204,7 +5204,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C440" t="n">
-        <v>0.7650699615478516</v>
+        <v>0.7676536440849304</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5215,7 +5215,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C441" t="n">
-        <v>0.779064416885376</v>
+        <v>0.781885027885437</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5226,7 +5226,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C442" t="n">
-        <v>0.8016752004623413</v>
+        <v>0.804594099521637</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5237,7 +5237,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C443" t="n">
-        <v>0.8017674684524536</v>
+        <v>0.8047488927841187</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5248,7 +5248,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C444" t="n">
-        <v>0.8209880590438843</v>
+        <v>0.8240695595741272</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5259,7 +5259,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C445" t="n">
-        <v>0.8026703000068665</v>
+        <v>0.8054630160331726</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5270,7 +5270,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C446" t="n">
-        <v>0.7918248772621155</v>
+        <v>0.7950360178947449</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5281,7 +5281,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C447" t="n">
-        <v>0.7864646911621094</v>
+        <v>0.7892422080039978</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5292,7 +5292,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C448" t="n">
-        <v>0.7840026617050171</v>
+        <v>0.7869870662689209</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5303,7 +5303,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C449" t="n">
-        <v>0.8041650056838989</v>
+        <v>0.8071320652961731</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5314,7 +5314,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C450" t="n">
-        <v>0.7968076467514038</v>
+        <v>0.7996700406074524</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5325,7 +5325,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C451" t="n">
-        <v>0.8010093569755554</v>
+        <v>0.8041436076164246</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5336,7 +5336,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C452" t="n">
-        <v>0.8601293563842773</v>
+        <v>0.8612074255943298</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5347,7 +5347,7 @@
         <v>0.9009646773338318</v>
       </c>
       <c r="C453" t="n">
-        <v>0.8500977754592896</v>
+        <v>0.8531396985054016</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5358,7 +5358,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C454" t="n">
-        <v>0.8127353191375732</v>
+        <v>0.8155613541603088</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5369,7 +5369,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C455" t="n">
-        <v>0.8407034873962402</v>
+        <v>0.8429818749427795</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5380,7 +5380,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C456" t="n">
-        <v>0.8224953413009644</v>
+        <v>0.825543224811554</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5391,7 +5391,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C457" t="n">
-        <v>0.8065744638442993</v>
+        <v>0.8095601201057434</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5402,7 +5402,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C458" t="n">
-        <v>0.8460114002227783</v>
+        <v>0.8479388356208801</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5413,7 +5413,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C459" t="n">
-        <v>0.8486876487731934</v>
+        <v>0.8503515124320984</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5424,7 +5424,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C460" t="n">
-        <v>0.8349981904029846</v>
+        <v>0.8373107314109802</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5435,7 +5435,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C461" t="n">
-        <v>0.814301609992981</v>
+        <v>0.8178974986076355</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5446,7 +5446,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C462" t="n">
-        <v>0.7964500784873962</v>
+        <v>0.7999058365821838</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5457,7 +5457,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C463" t="n">
-        <v>0.8563787341117859</v>
+        <v>0.8576222062110901</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5468,7 +5468,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C464" t="n">
-        <v>0.8343191146850586</v>
+        <v>0.8377370238304138</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5479,7 +5479,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C465" t="n">
-        <v>0.792481541633606</v>
+        <v>0.7957555651664734</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5490,7 +5490,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C466" t="n">
-        <v>0.8151869773864746</v>
+        <v>0.8191676735877991</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5501,7 +5501,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C467" t="n">
-        <v>0.743766188621521</v>
+        <v>0.7459242939949036</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5512,7 +5512,7 @@
         <v>0.7028939127922058</v>
       </c>
       <c r="C468" t="n">
-        <v>0.7462793588638306</v>
+        <v>0.7478950619697571</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5523,7 +5523,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C469" t="n">
-        <v>0.7600529789924622</v>
+        <v>0.7625028491020203</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5534,7 +5534,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C470" t="n">
-        <v>0.7685419321060181</v>
+        <v>0.7710909843444824</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5545,7 +5545,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C471" t="n">
-        <v>0.7650699615478516</v>
+        <v>0.7676536440849304</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5556,7 +5556,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C472" t="n">
-        <v>0.7749021053314209</v>
+        <v>0.7775564789772034</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5567,7 +5567,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C473" t="n">
-        <v>0.7737334966659546</v>
+        <v>0.7765156030654907</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5578,7 +5578,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C474" t="n">
-        <v>0.7693877220153809</v>
+        <v>0.7717898488044739</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5589,7 +5589,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C475" t="n">
-        <v>0.8377258777618408</v>
+        <v>0.8399136662483215</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5600,7 +5600,7 @@
         <v>0.9672026038169861</v>
       </c>
       <c r="C476" t="n">
-        <v>0.8724216222763062</v>
+        <v>0.8755515217781067</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5611,7 +5611,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C477" t="n">
-        <v>0.7994595766067505</v>
+        <v>0.802579939365387</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5622,7 +5622,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C478" t="n">
-        <v>0.807746410369873</v>
+        <v>0.8109498620033264</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5633,7 +5633,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C479" t="n">
-        <v>0.7947589159011841</v>
+        <v>0.7976900935173035</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5644,7 +5644,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C480" t="n">
-        <v>0.7671322822570801</v>
+        <v>0.7694078683853149</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5655,7 +5655,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C481" t="n">
-        <v>0.7998495101928711</v>
+        <v>0.8025498390197754</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5666,7 +5666,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C482" t="n">
-        <v>0.7845187783241272</v>
+        <v>0.7875292897224426</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5677,7 +5677,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C483" t="n">
-        <v>0.8075571656227112</v>
+        <v>0.8107395768165588</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5688,7 +5688,7 @@
         <v>0.9118971228599548</v>
       </c>
       <c r="C484" t="n">
-        <v>0.8569700717926025</v>
+        <v>0.8595495820045471</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5699,7 +5699,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C485" t="n">
-        <v>0.7947589159011841</v>
+        <v>0.7976900935173035</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5710,7 +5710,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C486" t="n">
-        <v>0.765434741973877</v>
+        <v>0.768008291721344</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5721,7 +5721,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C487" t="n">
-        <v>0.7801651954650879</v>
+        <v>0.7829788327217102</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5732,7 +5732,7 @@
         <v>0.7144694924354553</v>
       </c>
       <c r="C488" t="n">
-        <v>0.7410293817520142</v>
+        <v>0.742351233959198</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5743,7 +5743,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C489" t="n">
-        <v>0.7428227663040161</v>
+        <v>0.7445183396339417</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5754,7 +5754,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C490" t="n">
-        <v>0.7585250735282898</v>
+        <v>0.7610630393028259</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5765,7 +5765,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C491" t="n">
-        <v>0.7799283266067505</v>
+        <v>0.7826420664787292</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5776,7 +5776,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C492" t="n">
-        <v>0.7403890490531921</v>
+        <v>0.7412981390953064</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5787,7 +5787,7 @@
         <v>0.6919614672660828</v>
       </c>
       <c r="C493" t="n">
-        <v>0.7609567642211914</v>
+        <v>0.7630165815353394</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5798,7 +5798,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C494" t="n">
-        <v>0.7720153331756592</v>
+        <v>0.774567723274231</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5809,7 +5809,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C495" t="n">
-        <v>0.7559836506843567</v>
+        <v>0.7590619921684265</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5820,7 +5820,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C496" t="n">
-        <v>0.784475564956665</v>
+        <v>0.7872766852378845</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5831,7 +5831,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C497" t="n">
-        <v>0.7548073530197144</v>
+        <v>0.7569249272346497</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5842,7 +5842,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C498" t="n">
-        <v>0.7745956182479858</v>
+        <v>0.7776066660881042</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5853,7 +5853,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C499" t="n">
-        <v>0.8219741582870483</v>
+        <v>0.8246104121208191</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5864,7 +5864,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C500" t="n">
-        <v>0.8164989352226257</v>
+        <v>0.8192136883735657</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5875,7 +5875,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C501" t="n">
-        <v>0.8170143961906433</v>
+        <v>0.8199729919433594</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5886,7 +5886,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C502" t="n">
-        <v>0.8444012403488159</v>
+        <v>0.8463378548622131</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5897,7 +5897,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C503" t="n">
-        <v>0.8399966955184937</v>
+        <v>0.8422453999519348</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5908,7 +5908,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C504" t="n">
-        <v>0.8335715532302856</v>
+        <v>0.8358977437019348</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5919,7 +5919,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C505" t="n">
-        <v>0.8451380729675293</v>
+        <v>0.846993625164032</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5930,7 +5930,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C506" t="n">
-        <v>0.8454232215881348</v>
+        <v>0.8475750088691711</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5941,7 +5941,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C507" t="n">
-        <v>0.8010892271995544</v>
+        <v>0.8037852644920349</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5952,7 +5952,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C508" t="n">
-        <v>0.8269802331924438</v>
+        <v>0.8294720053672791</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5963,7 +5963,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C509" t="n">
-        <v>0.8355638980865479</v>
+        <v>0.8376726508140564</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5974,7 +5974,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C510" t="n">
-        <v>0.8117918968200684</v>
+        <v>0.815104067325592</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -5985,7 +5985,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C511" t="n">
-        <v>0.7575535774230957</v>
+        <v>0.759705126285553</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -5996,7 +5996,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C512" t="n">
-        <v>0.7683001756668091</v>
+        <v>0.7704573273658752</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6007,7 +6007,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C513" t="n">
-        <v>0.7544297575950623</v>
+        <v>0.7565614581108093</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6018,7 +6018,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C514" t="n">
-        <v>0.7629265785217285</v>
+        <v>0.7649618983268738</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6029,7 +6029,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C515" t="n">
-        <v>0.7636748552322388</v>
+        <v>0.7659584879875183</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6040,7 +6040,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C516" t="n">
-        <v>0.7711436748504639</v>
+        <v>0.7738111615180969</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6051,7 +6051,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C517" t="n">
-        <v>0.7623142600059509</v>
+        <v>0.7649112343788147</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6062,7 +6062,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C518" t="n">
-        <v>0.7579343914985657</v>
+        <v>0.7600659728050232</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6073,7 +6073,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C519" t="n">
-        <v>0.763177752494812</v>
+        <v>0.765612781047821</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6084,7 +6084,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C520" t="n">
-        <v>0.7544297575950623</v>
+        <v>0.7565614581108093</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6095,7 +6095,7 @@
         <v>0.7144694924354553</v>
       </c>
       <c r="C521" t="n">
-        <v>0.7561482191085815</v>
+        <v>0.7579742074012756</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6106,7 +6106,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C522" t="n">
-        <v>0.7570698261260986</v>
+        <v>0.7593609690666199</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6117,7 +6117,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C523" t="n">
-        <v>0.7824258804321289</v>
+        <v>0.7856119275093079</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6128,7 +6128,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C524" t="n">
-        <v>0.8042247295379639</v>
+        <v>0.8072893619537354</v>
       </c>
     </row>
   </sheetData>

--- a/cache_data/out/rebuilt.xlsx
+++ b/cache_data/out/rebuilt.xlsx
@@ -386,7 +386,7 @@
         <v>0.9562700390815735</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8763312101364136</v>
+        <v>0.8764471411705017</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -397,7 +397,7 @@
         <v>0.9446945786476135</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9113966226577759</v>
+        <v>0.9110885262489319</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -408,7 +408,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9021154642105103</v>
+        <v>0.900348424911499</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -419,7 +419,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8480052947998047</v>
+        <v>0.8415373563766479</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -430,7 +430,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8386342525482178</v>
+        <v>0.8339329361915588</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -441,7 +441,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7548186182975769</v>
+        <v>0.7487924695014954</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -452,7 +452,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7684164643287659</v>
+        <v>0.7655012607574463</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -463,7 +463,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7849799990653992</v>
+        <v>0.7821585536003113</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -474,7 +474,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7898211479187012</v>
+        <v>0.7803758382797241</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -485,7 +485,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7937579751014709</v>
+        <v>0.7912222146987915</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -496,7 +496,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8271007537841797</v>
+        <v>0.8246963620185852</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -507,7 +507,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7948254346847534</v>
+        <v>0.7899548411369324</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -518,7 +518,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7889068722724915</v>
+        <v>0.7833185195922852</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -529,7 +529,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7878811359405518</v>
+        <v>0.7805472612380981</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -540,7 +540,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7832610011100769</v>
+        <v>0.7770540714263916</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -551,7 +551,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C17" t="n">
-        <v>0.781624972820282</v>
+        <v>0.7776345610618591</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -562,7 +562,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8138871192932129</v>
+        <v>0.8090563416481018</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -573,7 +573,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8102007508277893</v>
+        <v>0.8040481805801392</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -584,7 +584,7 @@
         <v>0.9228295683860779</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8299972414970398</v>
+        <v>0.8233639597892761</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -595,7 +595,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8522507548332214</v>
+        <v>0.84322589635849</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -606,7 +606,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C22" t="n">
-        <v>0.859125554561615</v>
+        <v>0.8557435870170593</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -617,7 +617,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8358977437019348</v>
+        <v>0.8300328850746155</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -628,7 +628,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8111950755119324</v>
+        <v>0.8067455887794495</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -639,7 +639,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8234186768531799</v>
+        <v>0.8166112303733826</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -650,7 +650,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8168320059776306</v>
+        <v>0.8170081973075867</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -661,7 +661,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7782441973686218</v>
+        <v>0.7716110944747925</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -672,7 +672,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8500980734825134</v>
+        <v>0.8447898030281067</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -683,7 +683,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8565694689750671</v>
+        <v>0.8536486625671387</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -694,7 +694,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8486605286598206</v>
+        <v>0.8438230752944946</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -705,7 +705,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8340330719947815</v>
+        <v>0.830266535282135</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -716,7 +716,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7717922329902649</v>
+        <v>0.7643875479698181</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -727,7 +727,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7607702612876892</v>
+        <v>0.7552891373634338</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -738,7 +738,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7544763088226318</v>
+        <v>0.7469298243522644</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -749,7 +749,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7663134932518005</v>
+        <v>0.7598742842674255</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -760,7 +760,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7488043904304504</v>
+        <v>0.742249608039856</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -771,7 +771,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7621888518333435</v>
+        <v>0.7586113810539246</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -782,7 +782,7 @@
         <v>0.7144694924354553</v>
       </c>
       <c r="C38" t="n">
-        <v>0.77004474401474</v>
+        <v>0.7592111229896545</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -793,7 +793,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7459432482719421</v>
+        <v>0.7398819327354431</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -804,7 +804,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7607702612876892</v>
+        <v>0.7552891373634338</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -815,7 +815,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C41" t="n">
-        <v>0.765612781047821</v>
+        <v>0.7575186491012573</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -826,7 +826,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7785937190055847</v>
+        <v>0.7735300660133362</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -837,7 +837,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7738111615180969</v>
+        <v>0.7657092213630676</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -848,7 +848,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8389325737953186</v>
+        <v>0.8342558145523071</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -859,7 +859,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8297783732414246</v>
+        <v>0.8215221762657166</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -870,7 +870,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8384746909141541</v>
+        <v>0.8375323414802551</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -881,7 +881,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8068099021911621</v>
+        <v>0.7993928790092468</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -892,7 +892,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7942963242530823</v>
+        <v>0.7892094850540161</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -903,7 +903,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8489508628845215</v>
+        <v>0.844110906124115</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -914,7 +914,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8406985402107239</v>
+        <v>0.8355324864387512</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -925,7 +925,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8460448384284973</v>
+        <v>0.8416370749473572</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -936,7 +936,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8108769655227661</v>
+        <v>0.8063636422157288</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -947,7 +947,7 @@
         <v>0.9999999403953552</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7954840660095215</v>
+        <v>0.7907551527023315</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -958,7 +958,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9185389280319214</v>
+        <v>0.9182513356208801</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -969,7 +969,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8267403244972229</v>
+        <v>0.8227505683898926</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -980,7 +980,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7516486048698425</v>
+        <v>0.7445988059043884</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -991,7 +991,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7859154939651489</v>
+        <v>0.7792379260063171</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1002,7 +1002,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7635499835014343</v>
+        <v>0.7575907707214355</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1013,7 +1013,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7690609097480774</v>
+        <v>0.7621397376060486</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1024,7 +1024,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8071320652961731</v>
+        <v>0.799781858921051</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1035,7 +1035,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7710909843444824</v>
+        <v>0.7634570002555847</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1046,7 +1046,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C62" t="n">
-        <v>0.762847363948822</v>
+        <v>0.7552363276481628</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1057,7 +1057,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7748561501502991</v>
+        <v>0.768519401550293</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1068,7 +1068,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7775564789772034</v>
+        <v>0.770743727684021</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1079,7 +1079,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7576305270195007</v>
+        <v>0.7511179447174072</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1090,7 +1090,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C66" t="n">
-        <v>0.780983030796051</v>
+        <v>0.7711077928543091</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1101,7 +1101,7 @@
         <v>0.9999999403953552</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7738111615180969</v>
+        <v>0.7657092213630676</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1112,7 +1112,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9245840311050415</v>
+        <v>0.9214807152748108</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1123,7 +1123,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8022355437278748</v>
+        <v>0.795900821685791</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1134,7 +1134,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7892593741416931</v>
+        <v>0.7852098941802979</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1145,7 +1145,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8338122963905334</v>
+        <v>0.828417956829071</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1156,7 +1156,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8118696808815002</v>
+        <v>0.8090561628341675</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1167,7 +1167,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8442967534065247</v>
+        <v>0.8403565287590027</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1178,7 +1178,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8368586897850037</v>
+        <v>0.8326482176780701</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1189,7 +1189,7 @@
         <v>0.9672026038169861</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8395921587944031</v>
+        <v>0.8365426063537598</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1200,7 +1200,7 @@
         <v>0.9228295683860779</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9090019464492798</v>
+        <v>0.9074687361717224</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1211,7 +1211,7 @@
         <v>0.9337620139122009</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8979704976081848</v>
+        <v>0.897075355052948</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1222,7 +1222,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8955163955688477</v>
+        <v>0.8934065699577332</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1233,7 +1233,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7798981666564941</v>
+        <v>0.772509753704071</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1244,7 +1244,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7738111615180969</v>
+        <v>0.7657092213630676</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1255,7 +1255,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C81" t="n">
-        <v>0.760425865650177</v>
+        <v>0.7534250617027283</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1266,7 +1266,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C82" t="n">
-        <v>0.791531503200531</v>
+        <v>0.7854793667793274</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1277,7 +1277,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7836008667945862</v>
+        <v>0.777486264705658</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1288,7 +1288,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7717922329902649</v>
+        <v>0.7643875479698181</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1299,7 +1299,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7663134932518005</v>
+        <v>0.7598742842674255</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1310,7 +1310,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7576305270195007</v>
+        <v>0.7511179447174072</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1321,7 +1321,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7593609690666199</v>
+        <v>0.7505764365196228</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1332,7 +1332,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7569249272346497</v>
+        <v>0.7487571239471436</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1343,7 +1343,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7593609690666199</v>
+        <v>0.7505764365196228</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1354,7 +1354,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7632049918174744</v>
+        <v>0.7557141184806824</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1365,7 +1365,7 @@
         <v>0.9562700390815735</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7576305270195007</v>
+        <v>0.7511179447174072</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1376,7 +1376,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8942170739173889</v>
+        <v>0.888815701007843</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1387,7 +1387,7 @@
         <v>0.9781350493431091</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7848863005638123</v>
+        <v>0.7764618992805481</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1398,7 +1398,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8919061422348022</v>
+        <v>0.8852201700210571</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1409,7 +1409,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8335106372833252</v>
+        <v>0.8280882835388184</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1420,7 +1420,7 @@
         <v>0.9446945786476135</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8382720947265625</v>
+        <v>0.8319622874259949</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1431,7 +1431,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9101433157920837</v>
+        <v>0.9084421396255493</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1442,7 +1442,7 @@
         <v>0.9781350493431091</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8766322731971741</v>
+        <v>0.8730725646018982</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1453,7 +1453,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8946356773376465</v>
+        <v>0.8891088962554932</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1464,7 +1464,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8560996651649475</v>
+        <v>0.8584672808647156</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1475,7 +1475,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C101" t="n">
-        <v>0.7941408753395081</v>
+        <v>0.7876232266426086</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1486,7 +1486,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C102" t="n">
-        <v>0.7845457196235657</v>
+        <v>0.7760187983512878</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1497,7 +1497,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8042238354682922</v>
+        <v>0.806793749332428</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8059757351875305</v>
+        <v>0.8009505867958069</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8138871192932129</v>
+        <v>0.8090563416481018</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7941408753395081</v>
+        <v>0.7876232266426086</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C107" t="n">
-        <v>0.7683617472648621</v>
+        <v>0.7597832083702087</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C108" t="n">
-        <v>0.7832610011100769</v>
+        <v>0.7770540714263916</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7911973595619202</v>
+        <v>0.7850534915924072</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C110" t="n">
-        <v>0.7836008667945862</v>
+        <v>0.777486264705658</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C111" t="n">
-        <v>0.7809333205223083</v>
+        <v>0.7752959728240967</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C112" t="n">
-        <v>0.781885027885437</v>
+        <v>0.7738143801689148</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7938091158866882</v>
+        <v>0.7872077822685242</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C114" t="n">
-        <v>0.7855769991874695</v>
+        <v>0.7788044810295105</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>0.9337620139122009</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7693374156951904</v>
+        <v>0.758265495300293</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8909443020820618</v>
+        <v>0.888056218624115</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>0.9009646773338318</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8569707274436951</v>
+        <v>0.8503752946853638</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>0.9009646773338318</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8643830418586731</v>
+        <v>0.8581055402755737</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8517792224884033</v>
+        <v>0.8390673398971558</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>0.9118971228599548</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8669790625572205</v>
+        <v>0.8619031310081482</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>0.9228295683860779</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8714058995246887</v>
+        <v>0.8654589653015137</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8877624869346619</v>
+        <v>0.8836938738822937</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8755257129669189</v>
+        <v>0.8739736676216125</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8365595936775208</v>
+        <v>0.832326352596283</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7829203009605408</v>
+        <v>0.7766099572181702</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>0.7028939127922058</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8086754083633423</v>
+        <v>0.8046808838844299</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7522028684616089</v>
+        <v>0.7525321841239929</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7480939030647278</v>
+        <v>0.7398839592933655</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7775564789772034</v>
+        <v>0.770743727684021</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8018715977668762</v>
+        <v>0.7994876503944397</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8429020047187805</v>
+        <v>0.8410436511039734</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8429020047187805</v>
+        <v>0.8410436511039734</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8371567130088806</v>
+        <v>0.8329594731330872</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>0.6810289621353149</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8298287987709045</v>
+        <v>0.8270195722579956</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7078143954277039</v>
+        <v>0.7002879977226257</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>0.7028939127922058</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7541112899780273</v>
+        <v>0.7464329600334167</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C137" t="n">
-        <v>0.737844705581665</v>
+        <v>0.7336195111274719</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8052434325218201</v>
+        <v>0.7928920388221741</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7684164643287659</v>
+        <v>0.7655012607574463</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7728371620178223</v>
+        <v>0.7686195373535156</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7697594165802002</v>
+        <v>0.7644899487495422</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7981074452400208</v>
+        <v>0.7888244986534119</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7354865670204163</v>
+        <v>0.7261151671409607</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C144" t="n">
-        <v>0.7697594165802002</v>
+        <v>0.7644899487495422</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C145" t="n">
-        <v>0.7694078683853149</v>
+        <v>0.7640172839164734</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C146" t="n">
-        <v>0.7631925940513611</v>
+        <v>0.7570980191230774</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C147" t="n">
-        <v>0.7516486048698425</v>
+        <v>0.7445988059043884</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C148" t="n">
-        <v>0.7694078683853149</v>
+        <v>0.7640172839164734</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C149" t="n">
-        <v>0.7687082886695862</v>
+        <v>0.7616695761680603</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C150" t="n">
-        <v>0.7600659728050232</v>
+        <v>0.7529359459877014</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>0.7028939127922058</v>
       </c>
       <c r="C151" t="n">
-        <v>0.7512810826301575</v>
+        <v>0.7440906167030334</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>0.6919614672660828</v>
       </c>
       <c r="C152" t="n">
-        <v>0.7439823746681213</v>
+        <v>0.7402442693710327</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C153" t="n">
-        <v>0.738559901714325</v>
+        <v>0.735977828502655</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C154" t="n">
-        <v>0.745231032371521</v>
+        <v>0.7375175952911377</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>0.7028939127922058</v>
       </c>
       <c r="C155" t="n">
-        <v>0.742013156414032</v>
+        <v>0.7332888245582581</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C156" t="n">
-        <v>0.7305383086204529</v>
+        <v>0.7240309715270996</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>0.7144694924354553</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7520152926445007</v>
+        <v>0.7450944781303406</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C158" t="n">
-        <v>0.7484342455863953</v>
+        <v>0.7417297959327698</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C159" t="n">
-        <v>0.7470109462738037</v>
+        <v>0.7369974255561829</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C160" t="n">
-        <v>0.7527222633361816</v>
+        <v>0.74745774269104</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C161" t="n">
-        <v>0.7477228045463562</v>
+        <v>0.7393667697906494</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C162" t="n">
-        <v>0.7427265644073486</v>
+        <v>0.7356604933738708</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C163" t="n">
-        <v>0.7573304772377014</v>
+        <v>0.7535297274589539</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C164" t="n">
-        <v>0.7547801733016968</v>
+        <v>0.743017852306366</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C165" t="n">
-        <v>0.7551826238632202</v>
+        <v>0.7492917776107788</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C166" t="n">
-        <v>0.7593609690666199</v>
+        <v>0.7505764365196228</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C167" t="n">
-        <v>0.7652565836906433</v>
+        <v>0.7570396065711975</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C168" t="n">
-        <v>0.7731135487556458</v>
+        <v>0.7633548974990845</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C169" t="n">
-        <v>0.7673667669296265</v>
+        <v>0.7626947164535522</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C170" t="n">
-        <v>0.7537453174591064</v>
+        <v>0.745923638343811</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C171" t="n">
-        <v>0.7652565836906433</v>
+        <v>0.7570396065711975</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C172" t="n">
-        <v>0.7597220540046692</v>
+        <v>0.7510629892349243</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C173" t="n">
-        <v>0.7785937190055847</v>
+        <v>0.7735300660133362</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C174" t="n">
-        <v>0.7714420557022095</v>
+        <v>0.7639283537864685</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>0.9672026038169861</v>
       </c>
       <c r="C175" t="n">
-        <v>0.799996554851532</v>
+        <v>0.7941931486129761</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>0.9446945786476135</v>
       </c>
       <c r="C176" t="n">
-        <v>0.926430881023407</v>
+        <v>0.9280309081077576</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9065563082695007</v>
+        <v>0.9089271426200867</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>0.9337620139122009</v>
       </c>
       <c r="C178" t="n">
-        <v>0.8442967534065247</v>
+        <v>0.8403565287590027</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C179" t="n">
-        <v>0.8982320427894592</v>
+        <v>0.8972737193107605</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C180" t="n">
-        <v>0.7687082886695862</v>
+        <v>0.7616695761680603</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C181" t="n">
-        <v>0.7741600275039673</v>
+        <v>0.7661693692207336</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C182" t="n">
-        <v>0.7785937190055847</v>
+        <v>0.7735300660133362</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C183" t="n">
-        <v>0.7755516171455383</v>
+        <v>0.7708626389503479</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C184" t="n">
-        <v>0.7822278738021851</v>
+        <v>0.7742682695388794</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C185" t="n">
-        <v>0.7772111296653748</v>
+        <v>0.7702921628952026</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C186" t="n">
-        <v>0.7724891304969788</v>
+        <v>0.7667387127876282</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C187" t="n">
-        <v>0.8224694728851318</v>
+        <v>0.8194600939750671</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C188" t="n">
-        <v>0.7534034252166748</v>
+        <v>0.7440671324729919</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C189" t="n">
-        <v>0.7826420664787292</v>
+        <v>0.7788990139961243</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C190" t="n">
-        <v>0.7915465235710144</v>
+        <v>0.7798600792884827</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C191" t="n">
-        <v>0.8152046799659729</v>
+        <v>0.8081477284431458</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C192" t="n">
-        <v>0.8079984784126282</v>
+        <v>0.8023640513420105</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C193" t="n">
-        <v>0.8150562047958374</v>
+        <v>0.8188812136650085</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C194" t="n">
-        <v>0.8134580254554749</v>
+        <v>0.8013756275177002</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C195" t="n">
-        <v>0.8307490944862366</v>
+        <v>0.824165940284729</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C196" t="n">
-        <v>0.831710159778595</v>
+        <v>0.8305879235267639</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C197" t="n">
-        <v>0.8309685587882996</v>
+        <v>0.8260124325752258</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C198" t="n">
-        <v>0.8231003284454346</v>
+        <v>0.8201385140419006</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C199" t="n">
-        <v>0.8107084631919861</v>
+        <v>0.8046982884407043</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C200" t="n">
-        <v>0.7576305270195007</v>
+        <v>0.7511179447174072</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C201" t="n">
-        <v>0.7516486048698425</v>
+        <v>0.7445988059043884</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>0.7144694924354553</v>
       </c>
       <c r="C202" t="n">
-        <v>0.7427265644073486</v>
+        <v>0.7356604933738708</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C203" t="n">
-        <v>0.7579742074012756</v>
+        <v>0.7529693245887756</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C204" t="n">
-        <v>0.7663134932518005</v>
+        <v>0.7598742842674255</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C205" t="n">
-        <v>0.7632049918174744</v>
+        <v>0.7557141184806824</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C206" t="n">
-        <v>0.7781639099121094</v>
+        <v>0.7673559188842773</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C207" t="n">
-        <v>0.7663134932518005</v>
+        <v>0.7598742842674255</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C208" t="n">
-        <v>0.7635499835014343</v>
+        <v>0.7575907707214355</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C209" t="n">
-        <v>0.7748561501502991</v>
+        <v>0.768519401550293</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C210" t="n">
-        <v>0.7741600275039673</v>
+        <v>0.7661693692207336</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C211" t="n">
-        <v>0.7597220540046692</v>
+        <v>0.7510629892349243</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C212" t="n">
-        <v>0.7576305270195007</v>
+        <v>0.7511179447174072</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C213" t="n">
-        <v>0.813384473323822</v>
+        <v>0.8084219098091125</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C214" t="n">
-        <v>0.8205119967460632</v>
+        <v>0.814146876335144</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C215" t="n">
-        <v>0.8314138054847717</v>
+        <v>0.8264672756195068</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C216" t="n">
-        <v>0.8608207106590271</v>
+        <v>0.8570268154144287</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2751,7 +2751,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C217" t="n">
-        <v>0.8516236543655396</v>
+        <v>0.8479660153388977</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2762,7 +2762,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C218" t="n">
-        <v>0.8704861998558044</v>
+        <v>0.8682001233100891</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2773,7 +2773,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C219" t="n">
-        <v>0.8516236543655396</v>
+        <v>0.8479660153388977</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2784,7 +2784,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C220" t="n">
-        <v>0.8299972414970398</v>
+        <v>0.8233639597892761</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C221" t="n">
-        <v>0.8161918520927429</v>
+        <v>0.8108261823654175</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2806,7 +2806,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C222" t="n">
-        <v>0.7731853127479553</v>
+        <v>0.7690833806991577</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C223" t="n">
-        <v>0.7967354655265808</v>
+        <v>0.7897500395774841</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2828,7 +2828,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C224" t="n">
-        <v>0.7779008150100708</v>
+        <v>0.7711834311485291</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2839,7 +2839,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C225" t="n">
-        <v>0.7748561501502991</v>
+        <v>0.768519401550293</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2850,7 +2850,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C226" t="n">
-        <v>0.7846285104751587</v>
+        <v>0.7802484631538391</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2861,7 +2861,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C227" t="n">
-        <v>0.7895947098731995</v>
+        <v>0.7856487035751343</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2872,7 +2872,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C228" t="n">
-        <v>0.7948254346847534</v>
+        <v>0.7899548411369324</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C229" t="n">
-        <v>0.787963330745697</v>
+        <v>0.7847476601600647</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C230" t="n">
-        <v>0.7902622818946838</v>
+        <v>0.7864909172058105</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C231" t="n">
-        <v>0.7663134932518005</v>
+        <v>0.7598742842674255</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C232" t="n">
-        <v>0.7649618983268738</v>
+        <v>0.7608916759490967</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C233" t="n">
-        <v>0.7779008150100708</v>
+        <v>0.7711834311485291</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>0.2636656165122986</v>
       </c>
       <c r="C234" t="n">
-        <v>0.804594099521637</v>
+        <v>0.7977007031440735</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>0.01093247532844543</v>
       </c>
       <c r="C235" t="n">
-        <v>0.2747235298156738</v>
+        <v>0.3016772866249084</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>0.01093247532844543</v>
       </c>
       <c r="C236" t="n">
-        <v>0.08063633739948273</v>
+        <v>0.08861634135246277</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>0.08063633739948273</v>
+        <v>0.08861634135246277</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>0.01093247532844543</v>
       </c>
       <c r="C238" t="n">
-        <v>0.07893946766853333</v>
+        <v>0.08616358041763306</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>0.08063633739948273</v>
+        <v>0.08861634135246277</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3004,7 +3004,7 @@
         <v>0.01093247532844543</v>
       </c>
       <c r="C240" t="n">
-        <v>0.07893946766853333</v>
+        <v>0.08616358041763306</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>0.08063633739948273</v>
+        <v>0.08861634135246277</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3026,7 +3026,7 @@
         <v>0.01093247532844543</v>
       </c>
       <c r="C242" t="n">
-        <v>0.07893946766853333</v>
+        <v>0.08616358041763306</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>0.08063633739948273</v>
+        <v>0.08861634135246277</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3048,7 +3048,7 @@
         <v>0.01093247532844543</v>
       </c>
       <c r="C244" t="n">
-        <v>0.07893946766853333</v>
+        <v>0.08616358041763306</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>0.08063633739948273</v>
+        <v>0.08861634135246277</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>0.07893946766853333</v>
+        <v>0.08616358041763306</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>0.07745008170604706</v>
+        <v>0.08473493158817291</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3092,7 +3092,7 @@
         <v>0.06559485197067261</v>
       </c>
       <c r="C248" t="n">
-        <v>0.07893946766853333</v>
+        <v>0.08616358041763306</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3103,7 +3103,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C249" t="n">
-        <v>0.1101561188697815</v>
+        <v>0.12715944647789</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3114,7 +3114,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C250" t="n">
-        <v>0.7944716215133667</v>
+        <v>0.7880271077156067</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C251" t="n">
-        <v>0.7576305270195007</v>
+        <v>0.7511179447174072</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C252" t="n">
-        <v>0.7697594165802002</v>
+        <v>0.7644899487495422</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3147,7 +3147,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C253" t="n">
-        <v>0.7748561501502991</v>
+        <v>0.768519401550293</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3158,7 +3158,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C254" t="n">
-        <v>0.7785937190055847</v>
+        <v>0.7735300660133362</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3169,7 +3169,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C255" t="n">
-        <v>0.791531503200531</v>
+        <v>0.7854793667793274</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3180,7 +3180,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C256" t="n">
-        <v>0.7714420557022095</v>
+        <v>0.7639283537864685</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3191,7 +3191,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C257" t="n">
-        <v>0.7614871263504028</v>
+        <v>0.7562598586082458</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3202,7 +3202,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C258" t="n">
-        <v>0.7785937190055847</v>
+        <v>0.7735300660133362</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3213,7 +3213,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C259" t="n">
-        <v>0.7752028703689575</v>
+        <v>0.7689699530601501</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C260" t="n">
-        <v>0.8087119460105896</v>
+        <v>0.8061915040016174</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C261" t="n">
-        <v>0.7809333205223083</v>
+        <v>0.7752959728240967</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C262" t="n">
-        <v>0.799996554851532</v>
+        <v>0.7941931486129761</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3257,7 +3257,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C263" t="n">
-        <v>0.8379729390144348</v>
+        <v>0.8316410183906555</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C264" t="n">
-        <v>0.8469210267066956</v>
+        <v>0.8425278067588806</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3279,7 +3279,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C265" t="n">
-        <v>0.8627893924713135</v>
+        <v>0.8585688471794128</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3290,7 +3290,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C266" t="n">
-        <v>0.8605369329452515</v>
+        <v>0.85675048828125</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3301,7 +3301,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C267" t="n">
-        <v>0.8601720929145813</v>
+        <v>0.8547576069831848</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3312,7 +3312,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C268" t="n">
-        <v>0.8565694689750671</v>
+        <v>0.8536486625671387</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3323,7 +3323,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C269" t="n">
-        <v>0.8358977437019348</v>
+        <v>0.8300328850746155</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C270" t="n">
-        <v>0.7977460622787476</v>
+        <v>0.7924780249595642</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3345,7 +3345,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C271" t="n">
-        <v>0.7621294856071472</v>
+        <v>0.7542434930801392</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C272" t="n">
-        <v>0.7885545492172241</v>
+        <v>0.7814045548439026</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3367,7 +3367,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C273" t="n">
-        <v>0.8304446339607239</v>
+        <v>0.8238285183906555</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3378,7 +3378,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C274" t="n">
-        <v>0.7724891304969788</v>
+        <v>0.7667387127876282</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3389,7 +3389,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C275" t="n">
-        <v>0.7882183194160461</v>
+        <v>0.7809817790985107</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3400,7 +3400,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C276" t="n">
-        <v>0.7724891304969788</v>
+        <v>0.7667387127876282</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3411,7 +3411,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C277" t="n">
-        <v>0.7670137286186218</v>
+        <v>0.7622233033180237</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C278" t="n">
-        <v>0.7548186182975769</v>
+        <v>0.7487924695014954</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3433,7 +3433,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C279" t="n">
-        <v>0.7512810826301575</v>
+        <v>0.7440906167030334</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3444,7 +3444,7 @@
         <v>0.7144694924354553</v>
       </c>
       <c r="C280" t="n">
-        <v>0.7544763088226318</v>
+        <v>0.7469298243522644</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C281" t="n">
-        <v>0.7434394955635071</v>
+        <v>0.7380257248878479</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C282" t="n">
-        <v>0.7663134932518005</v>
+        <v>0.7598742842674255</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3477,7 +3477,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C283" t="n">
-        <v>0.760425865650177</v>
+        <v>0.7534250617027283</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3488,7 +3488,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C284" t="n">
-        <v>0.762847363948822</v>
+        <v>0.7552363276481628</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3499,7 +3499,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C285" t="n">
-        <v>0.852037250995636</v>
+        <v>0.844683825969696</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3510,7 +3510,7 @@
         <v>0.9009646773338318</v>
       </c>
       <c r="C286" t="n">
-        <v>0.8637179732322693</v>
+        <v>0.8610990047454834</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3521,7 +3521,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C287" t="n">
-        <v>0.8720490336418152</v>
+        <v>0.8677183389663696</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3532,7 +3532,7 @@
         <v>0.9337620139122009</v>
       </c>
       <c r="C288" t="n">
-        <v>0.8824097514152527</v>
+        <v>0.8812629580497742</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3543,7 +3543,7 @@
         <v>0.9118971228599548</v>
       </c>
       <c r="C289" t="n">
-        <v>0.8841871619224548</v>
+        <v>0.8808659911155701</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3554,7 +3554,7 @@
         <v>0.9009646773338318</v>
       </c>
       <c r="C290" t="n">
-        <v>0.8902468681335449</v>
+        <v>0.8909525871276855</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3565,7 +3565,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C291" t="n">
-        <v>0.8748854994773865</v>
+        <v>0.8717277646064758</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3576,7 +3576,7 @@
         <v>0.9118971228599548</v>
       </c>
       <c r="C292" t="n">
-        <v>0.8456814289093018</v>
+        <v>0.8396587371826172</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3587,7 +3587,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C293" t="n">
-        <v>0.8656850457191467</v>
+        <v>0.8573639988899231</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3598,7 +3598,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C294" t="n">
-        <v>0.8437736630439758</v>
+        <v>0.8344520926475525</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3609,7 +3609,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C295" t="n">
-        <v>0.7611291408538818</v>
+        <v>0.7557806968688965</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3620,7 +3620,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C296" t="n">
-        <v>0.7677134871482849</v>
+        <v>0.7645658254623413</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3631,7 +3631,7 @@
         <v>0.7144694924354553</v>
       </c>
       <c r="C297" t="n">
-        <v>0.7639064192771912</v>
+        <v>0.7580710053443909</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3642,7 +3642,7 @@
         <v>0.7144694924354553</v>
       </c>
       <c r="C298" t="n">
-        <v>0.755525529384613</v>
+        <v>0.751145601272583</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3653,7 +3653,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C299" t="n">
-        <v>0.7409229874610901</v>
+        <v>0.7361616492271423</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3664,7 +3664,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C300" t="n">
-        <v>0.7576305270195007</v>
+        <v>0.7511179447174072</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3675,7 +3675,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C301" t="n">
-        <v>0.8463378548622131</v>
+        <v>0.8419442772865295</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3686,7 +3686,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C302" t="n">
-        <v>0.8177301287651062</v>
+        <v>0.8117527961730957</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3697,7 +3697,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C303" t="n">
-        <v>0.7944945693016052</v>
+        <v>0.789537250995636</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3708,7 +3708,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C304" t="n">
-        <v>0.7878664135932922</v>
+        <v>0.7790589928627014</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3719,7 +3719,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C305" t="n">
-        <v>0.7721399068832397</v>
+        <v>0.7662771940231323</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3730,7 +3730,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C306" t="n">
-        <v>0.7724891304969788</v>
+        <v>0.7667387127876282</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3741,7 +3741,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C307" t="n">
-        <v>0.7527222633361816</v>
+        <v>0.74745774269104</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3752,7 +3752,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C308" t="n">
-        <v>0.7832610011100769</v>
+        <v>0.7770540714263916</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3763,7 +3763,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C309" t="n">
-        <v>0.8338122963905334</v>
+        <v>0.828417956829071</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3774,7 +3774,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C310" t="n">
-        <v>0.8290224671363831</v>
+        <v>0.8207016587257385</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3785,7 +3785,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C311" t="n">
-        <v>0.8088646531105042</v>
+        <v>0.8049624562263489</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3796,7 +3796,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C312" t="n">
-        <v>0.8274063467979431</v>
+        <v>0.8250463604927063</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3807,7 +3807,7 @@
         <v>0.9228295683860779</v>
       </c>
       <c r="C313" t="n">
-        <v>0.8605369329452515</v>
+        <v>0.85675048828125</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3818,7 +3818,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C314" t="n">
-        <v>0.8677046895027161</v>
+        <v>0.8661009073257446</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3829,7 +3829,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C315" t="n">
-        <v>0.8133901357650757</v>
+        <v>0.8044253587722778</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3840,7 +3840,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C316" t="n">
-        <v>0.8285541534423828</v>
+        <v>0.8240357041358948</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3851,7 +3851,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C317" t="n">
-        <v>0.7964058518409729</v>
+        <v>0.7893451452255249</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3862,7 +3862,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C318" t="n">
-        <v>0.7967354655265808</v>
+        <v>0.7897500395774841</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3873,7 +3873,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C319" t="n">
-        <v>0.7714420557022095</v>
+        <v>0.7639283537864685</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3884,7 +3884,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C320" t="n">
-        <v>0.7641962170600891</v>
+        <v>0.7541911602020264</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3895,7 +3895,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C321" t="n">
-        <v>0.7724891304969788</v>
+        <v>0.7667387127876282</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3906,7 +3906,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C322" t="n">
-        <v>0.7690609097480774</v>
+        <v>0.7621397376060486</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3917,7 +3917,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C323" t="n">
-        <v>0.762847363948822</v>
+        <v>0.7552363276481628</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3928,7 +3928,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C324" t="n">
-        <v>0.762847363948822</v>
+        <v>0.7552363276481628</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3939,7 +3939,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C325" t="n">
-        <v>0.7690609097480774</v>
+        <v>0.7621397376060486</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3950,7 +3950,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C326" t="n">
-        <v>0.7782503962516785</v>
+        <v>0.7730880975723267</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3961,7 +3961,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C327" t="n">
-        <v>0.7752028703689575</v>
+        <v>0.7689699530601501</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3972,7 +3972,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C328" t="n">
-        <v>0.7639064192771912</v>
+        <v>0.7580710053443909</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3983,7 +3983,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C329" t="n">
-        <v>0.7687082886695862</v>
+        <v>0.7616695761680603</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -3994,7 +3994,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C330" t="n">
-        <v>0.7795540690422058</v>
+        <v>0.7720571756362915</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4005,7 +4005,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C331" t="n">
-        <v>0.7725458145141602</v>
+        <v>0.7724234461784363</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4016,7 +4016,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C332" t="n">
-        <v>0.7724891304969788</v>
+        <v>0.7667387127876282</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4027,7 +4027,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C333" t="n">
-        <v>0.8118696808815002</v>
+        <v>0.8090561628341675</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4038,7 +4038,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C334" t="n">
-        <v>0.8361789584159851</v>
+        <v>0.833463728427887</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4049,7 +4049,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C335" t="n">
-        <v>0.8247887492179871</v>
+        <v>0.8174384832382202</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4060,7 +4060,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C336" t="n">
-        <v>0.8555654287338257</v>
+        <v>0.8472821116447449</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4071,7 +4071,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C337" t="n">
-        <v>0.8310523629188538</v>
+        <v>0.8244927525520325</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4082,7 +4082,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C338" t="n">
-        <v>0.835235059261322</v>
+        <v>0.8277328610420227</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4093,7 +4093,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C339" t="n">
-        <v>0.8456814289093018</v>
+        <v>0.8396587371826172</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4104,7 +4104,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C340" t="n">
-        <v>0.8005428910255432</v>
+        <v>0.7963814735412598</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4115,7 +4115,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C341" t="n">
-        <v>0.8356567025184631</v>
+        <v>0.8351675271987915</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4126,7 +4126,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C342" t="n">
-        <v>0.8406332731246948</v>
+        <v>0.8338765501976013</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4137,7 +4137,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C343" t="n">
-        <v>0.8180443644523621</v>
+        <v>0.8121269941329956</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4148,7 +4148,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C344" t="n">
-        <v>0.8467621207237244</v>
+        <v>0.8386448621749878</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4159,7 +4159,7 @@
         <v>0.9009646773338318</v>
       </c>
       <c r="C345" t="n">
-        <v>0.7618440389633179</v>
+        <v>0.7567265033721924</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4170,7 +4170,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C346" t="n">
-        <v>0.8720062375068665</v>
+        <v>0.8748248219490051</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4181,7 +4181,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C347" t="n">
-        <v>0.8354353308677673</v>
+        <v>0.8333230018615723</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4192,7 +4192,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C348" t="n">
-        <v>0.7527222633361816</v>
+        <v>0.74745774269104</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4203,7 +4203,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C349" t="n">
-        <v>0.7782503962516785</v>
+        <v>0.7730880975723267</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4214,7 +4214,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C350" t="n">
-        <v>0.7690609097480774</v>
+        <v>0.7621397376060486</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4225,7 +4225,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C351" t="n">
-        <v>0.7721399068832397</v>
+        <v>0.7662771940231323</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4236,7 +4236,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C352" t="n">
-        <v>0.7885545492172241</v>
+        <v>0.7814045548439026</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4247,7 +4247,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C353" t="n">
-        <v>0.7704595327377319</v>
+        <v>0.7653985619544983</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4258,7 +4258,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C354" t="n">
-        <v>0.7859154939651489</v>
+        <v>0.7792379260063171</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4269,7 +4269,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C355" t="n">
-        <v>0.7728371620178223</v>
+        <v>0.7686195373535156</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4280,7 +4280,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C356" t="n">
-        <v>0.8096557259559631</v>
+        <v>0.8018463850021362</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4291,7 +4291,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C357" t="n">
-        <v>0.8463378548622131</v>
+        <v>0.8419442772865295</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4302,7 +4302,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C358" t="n">
-        <v>0.8406985402107239</v>
+        <v>0.8355324864387512</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4313,7 +4313,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C359" t="n">
-        <v>0.8517462611198425</v>
+        <v>0.8443849682807922</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4324,7 +4324,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C360" t="n">
-        <v>0.8563935160636902</v>
+        <v>0.8497804999351501</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4335,7 +4335,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C361" t="n">
-        <v>0.8707630038261414</v>
+        <v>0.8684545159339905</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4346,7 +4346,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C362" t="n">
-        <v>0.8576222062110901</v>
+        <v>0.8526498079299927</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4357,7 +4357,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C363" t="n">
-        <v>0.8395921587944031</v>
+        <v>0.8365426063537598</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4368,7 +4368,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C364" t="n">
-        <v>0.8314138054847717</v>
+        <v>0.8264672756195068</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4379,7 +4379,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C365" t="n">
-        <v>0.8545711040496826</v>
+        <v>0.8520877957344055</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4390,7 +4390,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C366" t="n">
-        <v>0.8716800808906555</v>
+        <v>0.8709478378295898</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4401,7 +4401,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C367" t="n">
-        <v>0.7663134932518005</v>
+        <v>0.7598742842674255</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4412,7 +4412,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C368" t="n">
-        <v>0.7902622818946838</v>
+        <v>0.7864909172058105</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4423,7 +4423,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C369" t="n">
-        <v>0.7955225706100464</v>
+        <v>0.7866947650909424</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4434,7 +4434,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C370" t="n">
-        <v>0.8062955737113953</v>
+        <v>0.8013171553611755</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4445,7 +4445,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C371" t="n">
-        <v>0.7805911898612976</v>
+        <v>0.7748529314994812</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4456,7 +4456,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C372" t="n">
-        <v>0.7802411913871765</v>
+        <v>0.7729506492614746</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4467,7 +4467,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C373" t="n">
-        <v>0.7738111615180969</v>
+        <v>0.7657092213630676</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4478,7 +4478,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C374" t="n">
-        <v>0.7724891304969788</v>
+        <v>0.7667387127876282</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4489,7 +4489,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C375" t="n">
-        <v>0.7724891304969788</v>
+        <v>0.7667387127876282</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4500,7 +4500,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C376" t="n">
-        <v>0.7748561501502991</v>
+        <v>0.768519401550293</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4511,7 +4511,7 @@
         <v>0.7144694924354553</v>
       </c>
       <c r="C377" t="n">
-        <v>0.7544763088226318</v>
+        <v>0.7469298243522644</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4522,7 +4522,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C378" t="n">
-        <v>0.7484342455863953</v>
+        <v>0.7417297959327698</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4533,7 +4533,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C379" t="n">
-        <v>0.7802481055259705</v>
+        <v>0.7743978500366211</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4544,7 +4544,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C380" t="n">
-        <v>0.7855769991874695</v>
+        <v>0.7788044810295105</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4555,7 +4555,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C381" t="n">
-        <v>0.8079984784126282</v>
+        <v>0.8023640513420105</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4566,7 +4566,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C382" t="n">
-        <v>0.8442967534065247</v>
+        <v>0.8403565287590027</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4577,7 +4577,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C383" t="n">
-        <v>0.8549804091453552</v>
+        <v>0.848819375038147</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4588,7 +4588,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C384" t="n">
-        <v>0.8283360004425049</v>
+        <v>0.8222001791000366</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4599,7 +4599,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C385" t="n">
-        <v>0.8477131724357605</v>
+        <v>0.8412410020828247</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4610,7 +4610,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C386" t="n">
-        <v>0.8152309060096741</v>
+        <v>0.8136754631996155</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4621,7 +4621,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C387" t="n">
-        <v>0.804594099521637</v>
+        <v>0.7977007031440735</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4632,7 +4632,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C388" t="n">
-        <v>0.8365595936775208</v>
+        <v>0.832326352596283</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4643,7 +4643,7 @@
         <v>0.9009646773338318</v>
       </c>
       <c r="C389" t="n">
-        <v>0.7905095219612122</v>
+        <v>0.7827180027961731</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4654,7 +4654,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C390" t="n">
-        <v>0.8739685416221619</v>
+        <v>0.8692295551300049</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4665,7 +4665,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C391" t="n">
-        <v>0.7765156030654907</v>
+        <v>0.7679434418678284</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4676,7 +4676,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C392" t="n">
-        <v>0.7632049918174744</v>
+        <v>0.7557141184806824</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4687,7 +4687,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C393" t="n">
-        <v>0.7707436680793762</v>
+        <v>0.7615728974342346</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4698,7 +4698,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C394" t="n">
-        <v>0.7752047181129456</v>
+        <v>0.7703977823257446</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4709,7 +4709,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C395" t="n">
-        <v>0.7683617472648621</v>
+        <v>0.7597832083702087</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4720,7 +4720,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C396" t="n">
-        <v>0.7488043904304504</v>
+        <v>0.742249608039856</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4731,7 +4731,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C397" t="n">
-        <v>0.7748561501502991</v>
+        <v>0.768519401550293</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4742,7 +4742,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C398" t="n">
-        <v>0.7792859673500061</v>
+        <v>0.7758699655532837</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4753,7 +4753,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C399" t="n">
-        <v>0.7748561501502991</v>
+        <v>0.768519401550293</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4764,7 +4764,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C400" t="n">
-        <v>0.7775564789772034</v>
+        <v>0.770743727684021</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4775,7 +4775,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C401" t="n">
-        <v>0.7748561501502991</v>
+        <v>0.768519401550293</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4786,7 +4786,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C402" t="n">
-        <v>0.8334503769874573</v>
+        <v>0.8264337778091431</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4797,7 +4797,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C403" t="n">
-        <v>0.7825695872306824</v>
+        <v>0.7747101783752441</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4808,7 +4808,7 @@
         <v>0.9009646773338318</v>
       </c>
       <c r="C404" t="n">
-        <v>0.762847363948822</v>
+        <v>0.7552363276481628</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4819,7 +4819,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C405" t="n">
-        <v>0.8788065910339355</v>
+        <v>0.8748188018798828</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4830,7 +4830,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C406" t="n">
-        <v>0.7957555651664734</v>
+        <v>0.7842977046966553</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4841,7 +4841,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C407" t="n">
-        <v>0.8314771056175232</v>
+        <v>0.8172137141227722</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4852,7 +4852,7 @@
         <v>0.9118971228599548</v>
       </c>
       <c r="C408" t="n">
-        <v>0.8842893838882446</v>
+        <v>0.8827463984489441</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4863,7 +4863,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C409" t="n">
-        <v>0.8809698224067688</v>
+        <v>0.8765515089035034</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4874,7 +4874,7 @@
         <v>0.9562700390815735</v>
       </c>
       <c r="C410" t="n">
-        <v>0.8447293639183044</v>
+        <v>0.8370624184608459</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4885,7 +4885,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C411" t="n">
-        <v>0.8951454162597656</v>
+        <v>0.8878276944160461</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4896,7 +4896,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C412" t="n">
-        <v>0.813384473323822</v>
+        <v>0.8084219098091125</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4907,7 +4907,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C413" t="n">
-        <v>0.8605369329452515</v>
+        <v>0.85675048828125</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4918,7 +4918,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C414" t="n">
-        <v>0.8015549778938293</v>
+        <v>0.7935693860054016</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4929,7 +4929,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C415" t="n">
-        <v>0.7853167653083801</v>
+        <v>0.782583475112915</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4940,7 +4940,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C416" t="n">
-        <v>0.8274710774421692</v>
+        <v>0.8273059725761414</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4951,7 +4951,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C417" t="n">
-        <v>0.7912097573280334</v>
+        <v>0.7794274687767029</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4962,7 +4962,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C418" t="n">
-        <v>0.7785937190055847</v>
+        <v>0.7735300660133362</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4973,7 +4973,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C419" t="n">
-        <v>0.8111950755119324</v>
+        <v>0.8067455887794495</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -4984,7 +4984,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C420" t="n">
-        <v>0.818815290927887</v>
+        <v>0.8090119957923889</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -4995,7 +4995,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C421" t="n">
-        <v>0.8059757351875305</v>
+        <v>0.8009505867958069</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5006,7 +5006,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C422" t="n">
-        <v>0.7941408753395081</v>
+        <v>0.7876232266426086</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5017,7 +5017,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C423" t="n">
-        <v>0.8071320652961731</v>
+        <v>0.799781858921051</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5028,7 +5028,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C424" t="n">
-        <v>0.802193820476532</v>
+        <v>0.7998650670051575</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5039,7 +5039,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C425" t="n">
-        <v>0.802579939365387</v>
+        <v>0.7922323942184448</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5050,7 +5050,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C426" t="n">
-        <v>0.8219459652900696</v>
+        <v>0.8172719478607178</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5061,7 +5061,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C427" t="n">
-        <v>0.8050679564476013</v>
+        <v>0.8022952079772949</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5072,7 +5072,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C428" t="n">
-        <v>0.7936970591545105</v>
+        <v>0.7786663174629211</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5083,7 +5083,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C429" t="n">
-        <v>0.8384067416191101</v>
+        <v>0.835844099521637</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5094,7 +5094,7 @@
         <v>0.9009646773338318</v>
       </c>
       <c r="C430" t="n">
-        <v>0.8226391673088074</v>
+        <v>0.8118148446083069</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5105,7 +5105,7 @@
         <v>0.9446945786476135</v>
       </c>
       <c r="C431" t="n">
-        <v>0.8767948746681213</v>
+        <v>0.8732325434684753</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5116,7 +5116,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C432" t="n">
-        <v>0.8947560787200928</v>
+        <v>0.8875178694725037</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5127,7 +5127,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C433" t="n">
-        <v>0.8620309829711914</v>
+        <v>0.8598154187202454</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5138,7 +5138,7 @@
         <v>0.9337620139122009</v>
       </c>
       <c r="C434" t="n">
-        <v>0.8618451952934265</v>
+        <v>0.8538509011268616</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5149,7 +5149,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C435" t="n">
-        <v>0.8823069930076599</v>
+        <v>0.8793771862983704</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5160,7 +5160,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C436" t="n">
-        <v>0.8559191823005676</v>
+        <v>0.8513780236244202</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5171,7 +5171,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C437" t="n">
-        <v>0.8659558892250061</v>
+        <v>0.862894594669342</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5182,7 +5182,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C438" t="n">
-        <v>0.8163830637931824</v>
+        <v>0.8186834454536438</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5193,7 +5193,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C439" t="n">
-        <v>0.7548186182975769</v>
+        <v>0.7487924695014954</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5204,7 +5204,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C440" t="n">
-        <v>0.7676536440849304</v>
+        <v>0.7588351964950562</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5215,7 +5215,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C441" t="n">
-        <v>0.781885027885437</v>
+        <v>0.7738143801689148</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5226,7 +5226,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C442" t="n">
-        <v>0.804594099521637</v>
+        <v>0.7977007031440735</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5237,7 +5237,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C443" t="n">
-        <v>0.8047488927841187</v>
+        <v>0.8019391894340515</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5248,7 +5248,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C444" t="n">
-        <v>0.8240695595741272</v>
+        <v>0.8227556347846985</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5259,7 +5259,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C445" t="n">
-        <v>0.8054630160331726</v>
+        <v>0.8002834320068359</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5270,7 +5270,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C446" t="n">
-        <v>0.7950360178947449</v>
+        <v>0.7846647500991821</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5281,7 +5281,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C447" t="n">
-        <v>0.7892422080039978</v>
+        <v>0.7837435007095337</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5292,7 +5292,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C448" t="n">
-        <v>0.7869870662689209</v>
+        <v>0.7778641581535339</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5303,7 +5303,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C449" t="n">
-        <v>0.8071320652961731</v>
+        <v>0.799781858921051</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5314,7 +5314,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C450" t="n">
-        <v>0.7996700406074524</v>
+        <v>0.7937964200973511</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5325,7 +5325,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C451" t="n">
-        <v>0.8041436076164246</v>
+        <v>0.7930756211280823</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5336,7 +5336,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C452" t="n">
-        <v>0.8612074255943298</v>
+        <v>0.8537518382072449</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5347,7 +5347,7 @@
         <v>0.9009646773338318</v>
       </c>
       <c r="C453" t="n">
-        <v>0.8531396985054016</v>
+        <v>0.8546516299247742</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5358,7 +5358,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C454" t="n">
-        <v>0.8155613541603088</v>
+        <v>0.8060880303382874</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5369,7 +5369,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C455" t="n">
-        <v>0.8429818749427795</v>
+        <v>0.8357757925987244</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5380,7 +5380,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C456" t="n">
-        <v>0.825543224811554</v>
+        <v>0.8221039175987244</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5391,7 +5391,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C457" t="n">
-        <v>0.8095601201057434</v>
+        <v>0.7991942763328552</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5402,7 +5402,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C458" t="n">
-        <v>0.8479388356208801</v>
+        <v>0.8467950224876404</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5413,7 +5413,7 @@
         <v>0.8790996670722961</v>
       </c>
       <c r="C459" t="n">
-        <v>0.8503515124320984</v>
+        <v>0.8359088897705078</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5424,7 +5424,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C460" t="n">
-        <v>0.8373107314109802</v>
+        <v>0.8293423652648926</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5435,7 +5435,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C461" t="n">
-        <v>0.8178974986076355</v>
+        <v>0.8180593848228455</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5446,7 +5446,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C462" t="n">
-        <v>0.7999058365821838</v>
+        <v>0.787223756313324</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5457,7 +5457,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C463" t="n">
-        <v>0.8576222062110901</v>
+        <v>0.8526498079299927</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5468,7 +5468,7 @@
         <v>0.890032172203064</v>
       </c>
       <c r="C464" t="n">
-        <v>0.8377370238304138</v>
+        <v>0.8372357487678528</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5479,7 +5479,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C465" t="n">
-        <v>0.7957555651664734</v>
+        <v>0.7842977046966553</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5490,7 +5490,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C466" t="n">
-        <v>0.8191676735877991</v>
+        <v>0.8209357261657715</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5501,7 +5501,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C467" t="n">
-        <v>0.7459242939949036</v>
+        <v>0.7340970039367676</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5512,7 +5512,7 @@
         <v>0.7028939127922058</v>
       </c>
       <c r="C468" t="n">
-        <v>0.7478950619697571</v>
+        <v>0.7410570979118347</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5523,7 +5523,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C469" t="n">
-        <v>0.7625028491020203</v>
+        <v>0.7533509135246277</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5534,7 +5534,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C470" t="n">
-        <v>0.7710909843444824</v>
+        <v>0.7634570002555847</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5545,7 +5545,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C471" t="n">
-        <v>0.7676536440849304</v>
+        <v>0.7588351964950562</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5556,7 +5556,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C472" t="n">
-        <v>0.7775564789772034</v>
+        <v>0.770743727684021</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5567,7 +5567,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C473" t="n">
-        <v>0.7765156030654907</v>
+        <v>0.7679434418678284</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5578,7 +5578,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C474" t="n">
-        <v>0.7717898488044739</v>
+        <v>0.7658035755157471</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5589,7 +5589,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C475" t="n">
-        <v>0.8399136662483215</v>
+        <v>0.8252974152565002</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5600,7 +5600,7 @@
         <v>0.9672026038169861</v>
       </c>
       <c r="C476" t="n">
-        <v>0.8755515217781067</v>
+        <v>0.8774808049201965</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5611,7 +5611,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C477" t="n">
-        <v>0.802579939365387</v>
+        <v>0.7922323942184448</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5622,7 +5622,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C478" t="n">
-        <v>0.8109498620033264</v>
+        <v>0.8088130354881287</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5633,7 +5633,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C479" t="n">
-        <v>0.7976900935173035</v>
+        <v>0.7964290976524353</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5644,7 +5644,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C480" t="n">
-        <v>0.7694078683853149</v>
+        <v>0.7640172839164734</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5655,7 +5655,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C481" t="n">
-        <v>0.8025498390197754</v>
+        <v>0.8018020987510681</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5666,7 +5666,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C482" t="n">
-        <v>0.7875292897224426</v>
+        <v>0.7786383032798767</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5677,7 +5677,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C483" t="n">
-        <v>0.8107395768165588</v>
+        <v>0.7981032729148865</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5688,7 +5688,7 @@
         <v>0.9118971228599548</v>
       </c>
       <c r="C484" t="n">
-        <v>0.8595495820045471</v>
+        <v>0.8596844077110291</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5699,7 +5699,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C485" t="n">
-        <v>0.7976900935173035</v>
+        <v>0.7964290976524353</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5710,7 +5710,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C486" t="n">
-        <v>0.768008291721344</v>
+        <v>0.7593152523040771</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5721,7 +5721,7 @@
         <v>0.801929235458374</v>
       </c>
       <c r="C487" t="n">
-        <v>0.7829788327217102</v>
+        <v>0.7792968153953552</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5732,7 +5732,7 @@
         <v>0.7144694924354553</v>
       </c>
       <c r="C488" t="n">
-        <v>0.742351233959198</v>
+        <v>0.7351327538490295</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5743,7 +5743,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C489" t="n">
-        <v>0.7445183396339417</v>
+        <v>0.7351471781730652</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5754,7 +5754,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C490" t="n">
-        <v>0.7610630393028259</v>
+        <v>0.7513749003410339</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5765,7 +5765,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C491" t="n">
-        <v>0.7826420664787292</v>
+        <v>0.7788990139961243</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5776,7 +5776,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C492" t="n">
-        <v>0.7412981390953064</v>
+        <v>0.7366779446601868</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5787,7 +5787,7 @@
         <v>0.6919614672660828</v>
       </c>
       <c r="C493" t="n">
-        <v>0.7630165815353394</v>
+        <v>0.7582791447639465</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5798,7 +5798,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C494" t="n">
-        <v>0.774567723274231</v>
+        <v>0.7708178758621216</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5809,7 +5809,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C495" t="n">
-        <v>0.7590619921684265</v>
+        <v>0.7457015514373779</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5820,7 +5820,7 @@
         <v>0.790996789932251</v>
       </c>
       <c r="C496" t="n">
-        <v>0.7872766852378845</v>
+        <v>0.7824117541313171</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5831,7 +5831,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C497" t="n">
-        <v>0.7569249272346497</v>
+        <v>0.7487571239471436</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5842,7 +5842,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C498" t="n">
-        <v>0.7776066660881042</v>
+        <v>0.7678903341293335</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5853,7 +5853,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C499" t="n">
-        <v>0.8246104121208191</v>
+        <v>0.8211089968681335</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5864,7 +5864,7 @@
         <v>0.8128618001937866</v>
       </c>
       <c r="C500" t="n">
-        <v>0.8192136883735657</v>
+        <v>0.811095654964447</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5875,7 +5875,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C501" t="n">
-        <v>0.8199729919433594</v>
+        <v>0.8079667091369629</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5886,7 +5886,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C502" t="n">
-        <v>0.8463378548622131</v>
+        <v>0.8419442772865295</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5897,7 +5897,7 @@
         <v>0.8572347164154053</v>
       </c>
       <c r="C503" t="n">
-        <v>0.8422453999519348</v>
+        <v>0.8387619256973267</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5908,7 +5908,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C504" t="n">
-        <v>0.8358977437019348</v>
+        <v>0.8300328850746155</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5919,7 +5919,7 @@
         <v>0.8463022708892822</v>
       </c>
       <c r="C505" t="n">
-        <v>0.846993625164032</v>
+        <v>0.8442229628562927</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5930,7 +5930,7 @@
         <v>0.8681671619415283</v>
       </c>
       <c r="C506" t="n">
-        <v>0.8475750088691711</v>
+        <v>0.8448096513748169</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5941,7 +5941,7 @@
         <v>0.7800642848014832</v>
       </c>
       <c r="C507" t="n">
-        <v>0.8037852644920349</v>
+        <v>0.8008031845092773</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5952,7 +5952,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C508" t="n">
-        <v>0.8294720053672791</v>
+        <v>0.8211755752563477</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5963,7 +5963,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C509" t="n">
-        <v>0.8376726508140564</v>
+        <v>0.8313091397285461</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5974,7 +5974,7 @@
         <v>0.8353698253631592</v>
       </c>
       <c r="C510" t="n">
-        <v>0.815104067325592</v>
+        <v>0.815768837928772</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -5985,7 +5985,7 @@
         <v>0.7254019379615784</v>
       </c>
       <c r="C511" t="n">
-        <v>0.759705126285553</v>
+        <v>0.7524344325065613</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -5996,7 +5996,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C512" t="n">
-        <v>0.7704573273658752</v>
+        <v>0.7668336033821106</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6007,7 +6007,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C513" t="n">
-        <v>0.7565614581108093</v>
+        <v>0.7482591271400452</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6018,7 +6018,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C514" t="n">
-        <v>0.7649618983268738</v>
+        <v>0.7608916759490967</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6029,7 +6029,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C515" t="n">
-        <v>0.7659584879875183</v>
+        <v>0.7593929171562195</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6040,7 +6040,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C516" t="n">
-        <v>0.7738111615180969</v>
+        <v>0.7657092213630676</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6051,7 +6051,7 @@
         <v>0.7691318392753601</v>
       </c>
       <c r="C517" t="n">
-        <v>0.7649112343788147</v>
+        <v>0.7551566362380981</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6062,7 +6062,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C518" t="n">
-        <v>0.7600659728050232</v>
+        <v>0.7529359459877014</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6073,7 +6073,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C519" t="n">
-        <v>0.765612781047821</v>
+        <v>0.7575186491012573</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6084,7 +6084,7 @@
         <v>0.7363343834877014</v>
       </c>
       <c r="C520" t="n">
-        <v>0.7565614581108093</v>
+        <v>0.7482591271400452</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6095,7 +6095,7 @@
         <v>0.7144694924354553</v>
       </c>
       <c r="C521" t="n">
-        <v>0.7579742074012756</v>
+        <v>0.7529693245887756</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6106,7 +6106,7 @@
         <v>0.7472668290138245</v>
       </c>
       <c r="C522" t="n">
-        <v>0.7593609690666199</v>
+        <v>0.7505764365196228</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6117,7 +6117,7 @@
         <v>0.7581993937492371</v>
       </c>
       <c r="C523" t="n">
-        <v>0.7856119275093079</v>
+        <v>0.7745985388755798</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6128,7 +6128,7 @@
         <v>0.8237942457199097</v>
       </c>
       <c r="C524" t="n">
-        <v>0.8072893619537354</v>
+        <v>0.8039966225624084</v>
       </c>
     </row>
   </sheetData>
